--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{DD81EDB0-6400-CD4B-893C-525247613F75}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="14100" windowWidth="38400" xWindow="51200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14940" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="14100" windowWidth="38400" xWindow="51200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14940"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="555">
   <si>
     <t>description</t>
   </si>
@@ -1725,6 +1725,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1738,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1925,8 +1931,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="91">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2098,8 +2306,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2419,6 +2967,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2429,7 +3541,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="90">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2579,52 +3691,148 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="20" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="32" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="36" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="63" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="72" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="78" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="81" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="84" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="84" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2982,9 +4190,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4674,126 +5882,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>147</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>417</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>148</v>
+        <v>554</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>149</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>478</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>162</v>
+        <v>478</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4806,7 +6024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -32,26 +32,27 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="562">
   <si>
     <t>description</t>
   </si>
@@ -1731,6 +1732,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1760,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="78" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2133,8 +2155,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="91">
+  <fills count="121">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2646,8 +2769,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3531,6 +3824,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3541,7 +4116,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="106">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3787,52 +4362,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="63" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="63" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="66" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="72" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="72" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="52" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="78" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="78" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="81" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="84" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="84" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="84" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="84" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="96" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="111" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="114" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="114" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4190,7 +4813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4242,51 +4865,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>555</v>
+      </c>
+      <c r="O1" t="s">
         <v>510</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>194</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>237</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>434</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>455</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>448</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>391</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>430</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>457</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4331,51 +4957,54 @@
         <v>464</v>
       </c>
       <c r="N2" t="s">
+        <v>556</v>
+      </c>
+      <c r="O2" t="s">
         <v>513</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>447</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>465</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>251</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>215</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>435</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>456</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>454</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>415</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>431</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>169</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>174</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>181</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>467</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>524</v>
       </c>
     </row>
@@ -4420,45 +5049,48 @@
         <v>86</v>
       </c>
       <c r="N3" t="s">
+        <v>557</v>
+      </c>
+      <c r="O3" t="s">
         <v>514</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>466</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>238</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>216</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>436</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>450</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>416</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>432</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>170</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>175</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>398</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>182</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4500,45 +5132,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>558</v>
+      </c>
+      <c r="O4" t="s">
         <v>515</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>239</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>217</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>437</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>451</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>392</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>433</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>388</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>171</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>176</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>182</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>458</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4573,40 +5208,43 @@
       <c r="M5" t="s">
         <v>87</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q5" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>240</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>218</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>438</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>452</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>393</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>389</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>172</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>177</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>183</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>459</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4638,37 +5276,40 @@
       <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>241</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>425</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>439</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>395</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>479</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>178</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>184</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>460</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4694,37 +5335,40 @@
       <c r="M7" t="s">
         <v>350</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>242</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>449</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>440</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>394</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>480</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>179</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>185</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>461</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4750,34 +5394,34 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>91</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>243</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>441</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>396</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>100</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>173</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>180</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>186</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>462</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4803,25 +5447,25 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>92</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>244</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>442</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>397</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>187</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4844,22 +5488,22 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>468</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>245</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>443</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>255</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>188</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>508</v>
       </c>
     </row>
@@ -4882,19 +5526,19 @@
       <c r="M11" t="s">
         <v>506</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>256</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>525</v>
       </c>
     </row>
@@ -4917,19 +5561,19 @@
       <c r="M12" t="s">
         <v>475</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>189</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4952,25 +5596,25 @@
       <c r="M13" t="s">
         <v>505</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>360</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>190</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -4987,25 +5631,25 @@
       <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>191</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>510</v>
       </c>
       <c r="E15" t="s">
         <v>59</v>
@@ -5019,25 +5663,25 @@
       <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>533</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>192</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
         <v>419</v>
@@ -5051,25 +5695,25 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>534</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>193</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>420</v>
@@ -5080,19 +5724,19 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>535</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>495</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="E18" t="s">
         <v>446</v>
@@ -5103,16 +5747,16 @@
       <c r="K18" t="s">
         <v>490</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>434</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
@@ -5123,16 +5767,16 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
@@ -5143,16 +5787,16 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="E21" t="s">
         <v>254</v>
@@ -5163,16 +5807,16 @@
       <c r="K21" t="s">
         <v>414</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="E22" t="s">
         <v>62</v>
@@ -5183,13 +5827,13 @@
       <c r="K22" t="s">
         <v>504</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="E23" t="s">
         <v>355</v>
@@ -5200,13 +5844,13 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>430</v>
       </c>
       <c r="E24" t="s">
         <v>63</v>
@@ -5217,13 +5861,13 @@
       <c r="K24" t="s">
         <v>426</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>482</v>
@@ -5234,13 +5878,13 @@
       <c r="K25" t="s">
         <v>85</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>223</v>
@@ -5251,13 +5895,13 @@
       <c r="K26" t="s">
         <v>474</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>224</v>
@@ -5268,13 +5912,13 @@
       <c r="K27" t="s">
         <v>44</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>457</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>502</v>
@@ -5285,13 +5929,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>225</v>
+        <v>457</v>
       </c>
       <c r="E29" t="s">
         <v>503</v>
@@ -5299,18 +5943,21 @@
       <c r="G29" t="s">
         <v>318</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>225</v>
+      </c>
       <c r="E30" t="s">
         <v>453</v>
       </c>
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5321,7 +5968,7 @@
       <c r="G31" t="s">
         <v>309</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5332,7 +5979,7 @@
       <c r="G32" t="s">
         <v>319</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5343,7 +5990,7 @@
       <c r="G33" t="s">
         <v>551</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5354,7 +6001,7 @@
       <c r="G34" t="s">
         <v>294</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5365,7 +6012,7 @@
       <c r="G35" t="s">
         <v>364</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5376,7 +6023,7 @@
       <c r="G36" t="s">
         <v>342</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5387,7 +6034,7 @@
       <c r="G37" t="s">
         <v>295</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>372</v>
       </c>
     </row>
@@ -5398,7 +6045,7 @@
       <c r="G38" t="s">
         <v>343</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5406,7 +6053,7 @@
       <c r="G39" t="s">
         <v>301</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5414,7 +6061,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5422,7 +6069,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5430,7 +6077,7 @@
       <c r="G42" t="s">
         <v>323</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5438,7 +6085,7 @@
       <c r="G43" t="s">
         <v>334</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5446,7 +6093,7 @@
       <c r="G44" t="s">
         <v>335</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5454,7 +6101,7 @@
       <c r="G45" t="s">
         <v>377</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5462,7 +6109,7 @@
       <c r="G46" t="s">
         <v>376</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5470,7 +6117,7 @@
       <c r="G47" t="s">
         <v>209</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5478,7 +6125,7 @@
       <c r="G48" t="s">
         <v>336</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5486,7 +6133,7 @@
       <c r="G49" t="s">
         <v>373</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5494,7 +6141,7 @@
       <c r="G50" t="s">
         <v>402</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5502,7 +6149,7 @@
       <c r="G51" t="s">
         <v>337</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5510,7 +6157,7 @@
       <c r="G52" t="s">
         <v>390</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>516</v>
       </c>
     </row>
@@ -5518,7 +6165,7 @@
       <c r="G53" t="s">
         <v>365</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>499</v>
       </c>
     </row>
@@ -5526,7 +6173,7 @@
       <c r="G54" t="s">
         <v>302</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5534,7 +6181,7 @@
       <c r="G55" t="s">
         <v>326</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5542,7 +6189,7 @@
       <c r="G56" t="s">
         <v>327</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5550,7 +6197,7 @@
       <c r="G57" t="s">
         <v>328</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5558,7 +6205,7 @@
       <c r="G58" t="s">
         <v>338</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5566,7 +6213,7 @@
       <c r="G59" t="s">
         <v>347</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5574,7 +6221,7 @@
       <c r="G60" t="s">
         <v>371</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5582,7 +6229,7 @@
       <c r="G61" t="s">
         <v>344</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5590,7 +6237,7 @@
       <c r="G62" t="s">
         <v>345</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5598,7 +6245,7 @@
       <c r="G63" t="s">
         <v>403</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5606,7 +6253,7 @@
       <c r="G64" t="s">
         <v>404</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5614,7 +6261,7 @@
       <c r="G65" t="s">
         <v>379</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>507</v>
       </c>
     </row>
@@ -5622,7 +6269,7 @@
       <c r="G66" t="s">
         <v>348</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5630,7 +6277,7 @@
       <c r="G67" t="s">
         <v>303</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>423</v>
       </c>
     </row>
@@ -5638,7 +6285,7 @@
       <c r="G68" t="s">
         <v>387</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5646,7 +6293,7 @@
       <c r="G69" t="s">
         <v>349</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5654,7 +6301,7 @@
       <c r="G70" t="s">
         <v>444</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5662,7 +6309,7 @@
       <c r="G71" t="s">
         <v>339</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5670,7 +6317,7 @@
       <c r="G72" t="s">
         <v>445</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5678,7 +6325,7 @@
       <c r="G73" t="s">
         <v>296</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5686,7 +6333,7 @@
       <c r="G74" t="s">
         <v>552</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5694,7 +6341,7 @@
       <c r="G75" t="s">
         <v>378</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5702,7 +6349,7 @@
       <c r="G76" t="s">
         <v>314</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>501</v>
       </c>
     </row>
@@ -5710,7 +6357,7 @@
       <c r="G77" t="s">
         <v>320</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5718,7 +6365,7 @@
       <c r="G78" t="s">
         <v>325</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5726,7 +6373,7 @@
       <c r="G79" t="s">
         <v>463</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5734,7 +6381,7 @@
       <c r="G80" t="s">
         <v>366</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5742,7 +6389,7 @@
       <c r="G81" t="s">
         <v>304</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5750,7 +6397,7 @@
       <c r="G82" t="s">
         <v>315</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5758,7 +6405,7 @@
       <c r="G83" t="s">
         <v>321</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5766,7 +6413,7 @@
       <c r="G84" t="s">
         <v>310</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>517</v>
       </c>
     </row>
@@ -5774,7 +6421,7 @@
       <c r="G85" t="s">
         <v>305</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5782,7 +6429,7 @@
       <c r="G86" t="s">
         <v>322</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5790,7 +6437,7 @@
       <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5798,7 +6445,7 @@
       <c r="G88" t="s">
         <v>307</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5806,7 +6453,7 @@
       <c r="G89" t="s">
         <v>340</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5814,7 +6461,7 @@
       <c r="G90" t="s">
         <v>346</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5822,7 +6469,7 @@
       <c r="G91" t="s">
         <v>329</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5830,7 +6477,7 @@
       <c r="G92" t="s">
         <v>374</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5838,7 +6485,7 @@
       <c r="G93" t="s">
         <v>311</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>471</v>
       </c>
     </row>
@@ -5846,172 +6493,172 @@
       <c r="G94" t="s">
         <v>312</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -52,7 +52,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1753,6 +1753,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1772,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="78" x14ac:knownFonts="1">
+  <fonts count="142" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2256,8 +2268,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="121">
+  <fills count="241">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2939,8 +3355,688 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -4106,6 +5202,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4116,7 +6340,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="170">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4410,52 +6634,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="96" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="96" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="102" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="68" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="108" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="111" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="111" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="114" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="114" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="114" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="114" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="123" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="126" fontId="80" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="129" fontId="81" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="132" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="138" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="141" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="144" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="144" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="153" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="156" fontId="96" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="159" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="162" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="100" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="168" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="171" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="174" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="174" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="183" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="186" fontId="112" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="189" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="192" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="116" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="198" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="201" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="204" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="204" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="216" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="219" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="222" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="231" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="234" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="234" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5209,7 +7625,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -5277,7 +7693,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -5336,7 +7752,7 @@
         <v>350</v>
       </c>
       <c r="N7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -5394,6 +7810,9 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
+      <c r="N8" t="s">
+        <v>559</v>
+      </c>
       <c r="Q8" t="s">
         <v>91</v>
       </c>
@@ -5447,6 +7866,9 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
+      <c r="N9" t="s">
+        <v>560</v>
+      </c>
       <c r="Q9" t="s">
         <v>92</v>
       </c>
@@ -5488,6 +7910,9 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
+      <c r="N10" t="s">
+        <v>561</v>
+      </c>
       <c r="Q10" t="s">
         <v>468</v>
       </c>
@@ -5876,7 +8301,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>565</v>
       </c>
       <c r="Y25" t="s">
         <v>110</v>
@@ -5893,7 +8318,7 @@
         <v>316</v>
       </c>
       <c r="K26" t="s">
-        <v>474</v>
+        <v>85</v>
       </c>
       <c r="Y26" t="s">
         <v>111</v>
@@ -5910,7 +8335,7 @@
         <v>300</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="Y27" t="s">
         <v>112</v>
@@ -5927,7 +8352,7 @@
         <v>317</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s">
         <v>361</v>
@@ -5942,6 +8367,9 @@
       </c>
       <c r="G29" t="s">
         <v>318</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
       </c>
       <c r="Y29" t="s">
         <v>113</v>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -52,7 +52,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5425" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1765,6 +1765,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1784,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="142" x14ac:knownFonts="1">
+  <fonts count="158" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2672,8 +2684,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="241">
+  <fills count="271">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4035,8 +4148,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -6330,6 +6613,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6340,7 +6905,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="186">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6826,52 +7391,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="216" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="216" fontId="128" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="219" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="219" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="222" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="222" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="132" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="231" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="231" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="234" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="234" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="234" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="234" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="240" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="246" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="249" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="252" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="258" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="261" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="264" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="264" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7435,7 +8048,7 @@
         <v>497</v>
       </c>
       <c r="D3" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="E3" t="s">
         <v>491</v>
@@ -7518,7 +8131,7 @@
         <v>408</v>
       </c>
       <c r="D4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -7601,7 +8214,7 @@
         <v>409</v>
       </c>
       <c r="D5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E5" t="s">
         <v>492</v>
@@ -7625,7 +8238,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -7671,6 +8284,9 @@
       <c r="B6" t="s">
         <v>410</v>
       </c>
+      <c r="D6" t="s">
+        <v>523</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -7693,7 +8309,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -7752,7 +8368,7 @@
         <v>350</v>
       </c>
       <c r="N7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -7811,7 +8427,7 @@
         <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="Q8" t="s">
         <v>91</v>
@@ -7867,7 +8483,7 @@
         <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="Q9" t="s">
         <v>92</v>
@@ -7911,7 +8527,7 @@
         <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="Q10" t="s">
         <v>468</v>
@@ -7951,6 +8567,9 @@
       <c r="M11" t="s">
         <v>506</v>
       </c>
+      <c r="N11" t="s">
+        <v>560</v>
+      </c>
       <c r="Q11" t="s">
         <v>93</v>
       </c>
@@ -7986,6 +8605,9 @@
       <c r="M12" t="s">
         <v>475</v>
       </c>
+      <c r="N12" t="s">
+        <v>561</v>
+      </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
@@ -8301,7 +8923,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="Y25" t="s">
         <v>110</v>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -27,7 +27,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5425" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5962" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1777,6 +1777,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1790,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="158" x14ac:knownFonts="1">
+  <fonts count="174" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2785,8 +2791,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="271">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4318,8 +4425,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6895,6 +7172,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6905,7 +7464,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="202">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7439,52 +7998,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="246" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="246" fontId="144" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="249" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="249" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="252" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="252" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="258" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="258" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="261" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="261" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="264" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="264" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="264" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="264" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="252" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="252" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="276" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="279" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="282" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="288" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="291" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="294" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="294" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="282" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="282" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7842,7 +8449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8228,6 +8835,9 @@
       <c r="H5" t="s">
         <v>489</v>
       </c>
+      <c r="I5" t="s">
+        <v>570</v>
+      </c>
       <c r="J5" t="s">
         <v>385</v>
       </c>
@@ -9104,7 +9714,7 @@
         <v>301</v>
       </c>
       <c r="Y39" t="s">
-        <v>427</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40">
@@ -9112,7 +9722,7 @@
         <v>78</v>
       </c>
       <c r="Y40" t="s">
-        <v>120</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41">
@@ -9120,7 +9730,7 @@
         <v>210</v>
       </c>
       <c r="Y41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -9128,7 +9738,7 @@
         <v>323</v>
       </c>
       <c r="Y42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -9136,7 +9746,7 @@
         <v>334</v>
       </c>
       <c r="Y43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -9144,7 +9754,7 @@
         <v>335</v>
       </c>
       <c r="Y44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -9152,7 +9762,7 @@
         <v>377</v>
       </c>
       <c r="Y45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -9160,7 +9770,7 @@
         <v>376</v>
       </c>
       <c r="Y46" t="s">
-        <v>476</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
@@ -9168,7 +9778,7 @@
         <v>209</v>
       </c>
       <c r="Y47" t="s">
-        <v>211</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48">
@@ -9176,7 +9786,7 @@
         <v>336</v>
       </c>
       <c r="Y48" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49">
@@ -9184,7 +9794,7 @@
         <v>373</v>
       </c>
       <c r="Y49" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -9192,7 +9802,7 @@
         <v>402</v>
       </c>
       <c r="Y50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
@@ -9200,7 +9810,7 @@
         <v>337</v>
       </c>
       <c r="Y51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
@@ -9208,7 +9818,7 @@
         <v>390</v>
       </c>
       <c r="Y52" t="s">
-        <v>516</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
@@ -9216,7 +9826,7 @@
         <v>365</v>
       </c>
       <c r="Y53" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54">
@@ -9224,7 +9834,7 @@
         <v>302</v>
       </c>
       <c r="Y54" t="s">
-        <v>129</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55">
@@ -9232,7 +9842,7 @@
         <v>326</v>
       </c>
       <c r="Y55" t="s">
-        <v>380</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
@@ -9240,7 +9850,7 @@
         <v>327</v>
       </c>
       <c r="Y56" t="s">
-        <v>493</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57">
@@ -9248,7 +9858,7 @@
         <v>328</v>
       </c>
       <c r="Y57" t="s">
-        <v>130</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58">
@@ -9256,7 +9866,7 @@
         <v>338</v>
       </c>
       <c r="Y58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
@@ -9264,7 +9874,7 @@
         <v>347</v>
       </c>
       <c r="Y59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
@@ -9272,7 +9882,7 @@
         <v>371</v>
       </c>
       <c r="Y60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
@@ -9280,7 +9890,7 @@
         <v>344</v>
       </c>
       <c r="Y61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -9288,7 +9898,7 @@
         <v>345</v>
       </c>
       <c r="Y62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -9296,7 +9906,7 @@
         <v>403</v>
       </c>
       <c r="Y63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -9304,7 +9914,7 @@
         <v>404</v>
       </c>
       <c r="Y64" t="s">
-        <v>472</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -9312,7 +9922,7 @@
         <v>379</v>
       </c>
       <c r="Y65" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66">
@@ -9320,7 +9930,7 @@
         <v>348</v>
       </c>
       <c r="Y66" t="s">
-        <v>212</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67">
@@ -9328,7 +9938,7 @@
         <v>303</v>
       </c>
       <c r="Y67" t="s">
-        <v>423</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68">
@@ -9336,7 +9946,7 @@
         <v>387</v>
       </c>
       <c r="Y68" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69">
@@ -9344,7 +9954,7 @@
         <v>349</v>
       </c>
       <c r="Y69" t="s">
-        <v>137</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70">
@@ -9352,7 +9962,7 @@
         <v>444</v>
       </c>
       <c r="Y70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
@@ -9360,7 +9970,7 @@
         <v>339</v>
       </c>
       <c r="Y71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
@@ -9368,7 +9978,7 @@
         <v>445</v>
       </c>
       <c r="Y72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
@@ -9376,7 +9986,7 @@
         <v>296</v>
       </c>
       <c r="Y73" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -9384,7 +9994,7 @@
         <v>552</v>
       </c>
       <c r="Y74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75">
@@ -9392,7 +10002,7 @@
         <v>378</v>
       </c>
       <c r="Y75" t="s">
-        <v>488</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76">
@@ -9400,7 +10010,7 @@
         <v>314</v>
       </c>
       <c r="Y76" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77">
@@ -9408,7 +10018,7 @@
         <v>320</v>
       </c>
       <c r="Y77" t="s">
-        <v>141</v>
+        <v>501</v>
       </c>
     </row>
     <row r="78">
@@ -9416,7 +10026,7 @@
         <v>325</v>
       </c>
       <c r="Y78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
@@ -9424,7 +10034,7 @@
         <v>463</v>
       </c>
       <c r="Y79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80">
@@ -9432,7 +10042,7 @@
         <v>366</v>
       </c>
       <c r="Y80" t="s">
-        <v>529</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81">
@@ -9440,7 +10050,7 @@
         <v>304</v>
       </c>
       <c r="Y81" t="s">
-        <v>144</v>
+        <v>529</v>
       </c>
     </row>
     <row r="82">
@@ -9448,7 +10058,7 @@
         <v>315</v>
       </c>
       <c r="Y82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
@@ -9456,7 +10066,7 @@
         <v>321</v>
       </c>
       <c r="Y83" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
@@ -9464,7 +10074,7 @@
         <v>310</v>
       </c>
       <c r="Y84" t="s">
-        <v>517</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -9472,7 +10082,7 @@
         <v>305</v>
       </c>
       <c r="Y85" t="s">
-        <v>198</v>
+        <v>517</v>
       </c>
     </row>
     <row r="86">
@@ -9480,7 +10090,7 @@
         <v>322</v>
       </c>
       <c r="Y86" t="s">
-        <v>487</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -9488,7 +10098,7 @@
         <v>306</v>
       </c>
       <c r="Y87" t="s">
-        <v>199</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88">
@@ -9496,7 +10106,7 @@
         <v>307</v>
       </c>
       <c r="Y88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
@@ -9504,7 +10114,7 @@
         <v>340</v>
       </c>
       <c r="Y89" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -9512,7 +10122,7 @@
         <v>346</v>
       </c>
       <c r="Y90" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91">
@@ -9520,7 +10130,7 @@
         <v>329</v>
       </c>
       <c r="Y91" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92">
@@ -9528,7 +10138,7 @@
         <v>374</v>
       </c>
       <c r="Y92" t="s">
-        <v>470</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
@@ -9536,7 +10146,7 @@
         <v>311</v>
       </c>
       <c r="Y93" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94">
@@ -9544,171 +10154,176 @@
         <v>312</v>
       </c>
       <c r="Y94" t="s">
-        <v>202</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>536</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>147</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>554</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>417</v>
+        <v>554</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>148</v>
+        <v>417</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>478</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>161</v>
+        <v>478</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -25,13 +25,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -46,12 +46,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5962" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6509" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1783,6 +1783,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1823,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="174" x14ac:knownFonts="1">
+  <fonts count="190" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2892,8 +2925,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4595,8 +4729,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="315">
     <border>
       <left/>
       <right/>
@@ -7454,6 +7741,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7464,7 +8077,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="218">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8046,52 +8659,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="276" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="276" fontId="160" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="279" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="279" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="282" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="282" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="288" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="288" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="291" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="291" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="294" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="294" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="294" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="294" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="282" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="282" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="282" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="282" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="303" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="306" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="309" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="312" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="318" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="309" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="321" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="321" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8449,7 +9110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8971,6 +9632,9 @@
       <c r="H7" t="s">
         <v>481</v>
       </c>
+      <c r="J7" t="s">
+        <v>574</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -9011,7 +9675,7 @@
         <v>461</v>
       </c>
       <c r="AD7" t="s">
-        <v>230</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8">
@@ -9067,7 +9731,7 @@
         <v>462</v>
       </c>
       <c r="AD8" t="s">
-        <v>231</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9">
@@ -9114,7 +9778,7 @@
         <v>187</v>
       </c>
       <c r="AD9" t="s">
-        <v>232</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10">
@@ -9155,7 +9819,7 @@
         <v>188</v>
       </c>
       <c r="AD10" t="s">
-        <v>508</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -9193,7 +9857,7 @@
         <v>257</v>
       </c>
       <c r="AD11" t="s">
-        <v>525</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12">
@@ -9213,7 +9877,7 @@
         <v>424</v>
       </c>
       <c r="M12" t="s">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N12" t="s">
         <v>561</v>
@@ -9231,7 +9895,7 @@
         <v>189</v>
       </c>
       <c r="AD12" t="s">
-        <v>526</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13">
@@ -9251,7 +9915,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="Q13" t="s">
         <v>94</v>
@@ -9266,7 +9930,7 @@
         <v>190</v>
       </c>
       <c r="AD13" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14">
@@ -9286,7 +9950,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>505</v>
       </c>
       <c r="Q14" t="s">
         <v>95</v>
@@ -9301,7 +9965,7 @@
         <v>191</v>
       </c>
       <c r="AD14" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15">
@@ -9318,7 +9982,7 @@
         <v>540</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>533</v>
@@ -9333,7 +9997,7 @@
         <v>192</v>
       </c>
       <c r="AD15" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16">
@@ -9350,7 +10014,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>534</v>
@@ -9365,7 +10029,7 @@
         <v>193</v>
       </c>
       <c r="AD16" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17">
@@ -9381,6 +10045,9 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
       <c r="Y17" t="s">
         <v>535</v>
       </c>
@@ -9388,7 +10055,7 @@
         <v>495</v>
       </c>
       <c r="AD17" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18">
@@ -9408,7 +10075,7 @@
         <v>104</v>
       </c>
       <c r="AD18" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19">
@@ -9428,7 +10095,7 @@
         <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>233</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20">
@@ -9448,7 +10115,7 @@
         <v>106</v>
       </c>
       <c r="AD20" t="s">
-        <v>234</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21">
@@ -9468,7 +10135,7 @@
         <v>107</v>
       </c>
       <c r="AD21" t="s">
-        <v>235</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22">
@@ -9487,6 +10154,9 @@
       <c r="Y22" t="s">
         <v>518</v>
       </c>
+      <c r="AD22" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -9504,6 +10174,9 @@
       <c r="Y23" t="s">
         <v>108</v>
       </c>
+      <c r="AD23" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -9521,6 +10194,9 @@
       <c r="Y24" t="s">
         <v>109</v>
       </c>
+      <c r="AD24" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -9538,6 +10214,9 @@
       <c r="Y25" t="s">
         <v>110</v>
       </c>
+      <c r="AD25" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -9555,6 +10234,9 @@
       <c r="Y26" t="s">
         <v>111</v>
       </c>
+      <c r="AD26" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -9572,6 +10254,9 @@
       <c r="Y27" t="s">
         <v>112</v>
       </c>
+      <c r="AD27" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -9802,7 +10487,7 @@
         <v>402</v>
       </c>
       <c r="Y50" t="s">
-        <v>126</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51">
@@ -9810,7 +10495,7 @@
         <v>337</v>
       </c>
       <c r="Y51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
@@ -9818,7 +10503,7 @@
         <v>390</v>
       </c>
       <c r="Y52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53">
@@ -9826,7 +10511,7 @@
         <v>365</v>
       </c>
       <c r="Y53" t="s">
-        <v>516</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
@@ -9834,7 +10519,7 @@
         <v>302</v>
       </c>
       <c r="Y54" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55">
@@ -9842,7 +10527,7 @@
         <v>326</v>
       </c>
       <c r="Y55" t="s">
-        <v>129</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56">
@@ -9850,7 +10535,7 @@
         <v>327</v>
       </c>
       <c r="Y56" t="s">
-        <v>380</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
@@ -9858,7 +10543,7 @@
         <v>328</v>
       </c>
       <c r="Y57" t="s">
-        <v>493</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58">
@@ -9866,7 +10551,7 @@
         <v>338</v>
       </c>
       <c r="Y58" t="s">
-        <v>130</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59">
@@ -9874,7 +10559,7 @@
         <v>347</v>
       </c>
       <c r="Y59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -9882,7 +10567,7 @@
         <v>371</v>
       </c>
       <c r="Y60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
@@ -9890,7 +10575,7 @@
         <v>344</v>
       </c>
       <c r="Y61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
@@ -9898,7 +10583,7 @@
         <v>345</v>
       </c>
       <c r="Y62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
@@ -9906,7 +10591,7 @@
         <v>403</v>
       </c>
       <c r="Y63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
@@ -9914,7 +10599,7 @@
         <v>404</v>
       </c>
       <c r="Y64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
@@ -9922,7 +10607,7 @@
         <v>379</v>
       </c>
       <c r="Y65" t="s">
-        <v>472</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66">
@@ -9930,7 +10615,7 @@
         <v>348</v>
       </c>
       <c r="Y66" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67">
@@ -9938,15 +10623,15 @@
         <v>303</v>
       </c>
       <c r="Y67" t="s">
-        <v>212</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>387</v>
+        <v>572</v>
       </c>
       <c r="Y68" t="s">
-        <v>423</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69">
@@ -9954,7 +10639,7 @@
         <v>349</v>
       </c>
       <c r="Y69" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70">
@@ -9962,7 +10647,7 @@
         <v>444</v>
       </c>
       <c r="Y70" t="s">
-        <v>137</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71">
@@ -9970,7 +10655,7 @@
         <v>339</v>
       </c>
       <c r="Y71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
@@ -9978,7 +10663,7 @@
         <v>445</v>
       </c>
       <c r="Y72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
@@ -9986,7 +10671,7 @@
         <v>296</v>
       </c>
       <c r="Y73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
@@ -9994,7 +10679,7 @@
         <v>552</v>
       </c>
       <c r="Y74" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
@@ -10002,7 +10687,7 @@
         <v>378</v>
       </c>
       <c r="Y75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76">
@@ -10010,7 +10695,7 @@
         <v>314</v>
       </c>
       <c r="Y76" t="s">
-        <v>488</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77">
@@ -10018,7 +10703,7 @@
         <v>320</v>
       </c>
       <c r="Y77" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78">
@@ -10026,7 +10711,7 @@
         <v>325</v>
       </c>
       <c r="Y78" t="s">
-        <v>141</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79">
@@ -10034,7 +10719,7 @@
         <v>463</v>
       </c>
       <c r="Y79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80">
@@ -10042,7 +10727,7 @@
         <v>366</v>
       </c>
       <c r="Y80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81">
@@ -10050,7 +10735,7 @@
         <v>304</v>
       </c>
       <c r="Y81" t="s">
-        <v>529</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
@@ -10058,7 +10743,7 @@
         <v>315</v>
       </c>
       <c r="Y82" t="s">
-        <v>144</v>
+        <v>529</v>
       </c>
     </row>
     <row r="83">
@@ -10066,7 +10751,7 @@
         <v>321</v>
       </c>
       <c r="Y83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
@@ -10074,256 +10759,264 @@
         <v>310</v>
       </c>
       <c r="Y84" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>305</v>
+        <v>573</v>
       </c>
       <c r="Y85" t="s">
-        <v>517</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="Y86" t="s">
-        <v>198</v>
+        <v>517</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="Y87" t="s">
-        <v>487</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y88" t="s">
-        <v>199</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="Y89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Y90" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="Y91" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="Y92" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="Y93" t="s">
-        <v>470</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>312</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>536</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>147</v>
+        <v>553</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>554</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>417</v>
+        <v>554</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>148</v>
+        <v>417</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>478</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>161</v>
+        <v>478</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -45,14 +45,15 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6509" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7060" uniqueCount="586">
   <si>
     <t>description</t>
   </si>
@@ -1816,6 +1817,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1833,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="190" x14ac:knownFonts="1">
+  <fonts count="206" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3026,8 +3036,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4882,8 +4993,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="315">
+  <borders count="347">
     <border>
       <left/>
       <right/>
@@ -8067,6 +8331,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8077,7 +8667,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="234">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8707,52 +9297,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="303" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="303" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="306" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="306" fontId="176" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="309" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="309" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="312" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="312" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="180" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="318" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="318" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="309" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="309" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="321" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="321" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="321" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="321" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="330" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="333" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="336" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="339" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="345" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="336" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="348" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="348" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9110,7 +9748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9195,21 +9833,24 @@
         <v>430</v>
       </c>
       <c r="Y1" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>457</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -9287,21 +9928,24 @@
         <v>431</v>
       </c>
       <c r="Y2" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>467</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>524</v>
       </c>
     </row>
@@ -9372,22 +10016,22 @@
       <c r="X3" t="s">
         <v>432</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>398</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -9455,22 +10099,22 @@
       <c r="X4" t="s">
         <v>433</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>388</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>458</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9529,22 +10173,22 @@
       <c r="W5" t="s">
         <v>393</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>389</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>459</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9597,22 +10241,22 @@
       <c r="W6" t="s">
         <v>395</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>479</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>460</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -9659,22 +10303,22 @@
       <c r="W7" t="s">
         <v>394</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>480</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>461</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>577</v>
       </c>
     </row>
@@ -9715,22 +10359,22 @@
       <c r="W8" t="s">
         <v>396</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>462</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>578</v>
       </c>
     </row>
@@ -9771,13 +10415,13 @@
       <c r="W9" t="s">
         <v>397</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>579</v>
       </c>
     </row>
@@ -9812,13 +10456,13 @@
       <c r="T10" t="s">
         <v>443</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9850,13 +10494,13 @@
       <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -9888,13 +10532,13 @@
       <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -9923,13 +10567,13 @@
       <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>360</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>508</v>
       </c>
     </row>
@@ -9958,13 +10602,13 @@
       <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9990,13 +10634,13 @@
       <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10022,13 +10666,13 @@
       <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10048,13 +10692,13 @@
       <c r="M17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>535</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>495</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>531</v>
       </c>
     </row>
@@ -10071,10 +10715,10 @@
       <c r="K18" t="s">
         <v>490</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>509</v>
       </c>
     </row>
@@ -10091,10 +10735,10 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>527</v>
       </c>
     </row>
@@ -10111,10 +10755,10 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>528</v>
       </c>
     </row>
@@ -10131,10 +10775,10 @@
       <c r="K21" t="s">
         <v>414</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>532</v>
       </c>
     </row>
@@ -10143,7 +10787,7 @@
         <v>448</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>584</v>
       </c>
       <c r="G22" t="s">
         <v>333</v>
@@ -10151,10 +10795,10 @@
       <c r="K22" t="s">
         <v>504</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>518</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -10163,7 +10807,7 @@
         <v>391</v>
       </c>
       <c r="E23" t="s">
-        <v>355</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
         <v>324</v>
@@ -10171,10 +10815,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>580</v>
       </c>
     </row>
@@ -10183,7 +10827,7 @@
         <v>430</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>355</v>
       </c>
       <c r="G24" t="s">
         <v>313</v>
@@ -10191,19 +10835,19 @@
       <c r="K24" t="s">
         <v>426</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>109</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>583</v>
       </c>
       <c r="E25" t="s">
-        <v>482</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
         <v>76</v>
@@ -10211,19 +10855,19 @@
       <c r="K25" t="s">
         <v>567</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>223</v>
+        <v>482</v>
       </c>
       <c r="G26" t="s">
         <v>316</v>
@@ -10231,19 +10875,19 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>111</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
         <v>300</v>
@@ -10251,19 +10895,19 @@
       <c r="K27" t="s">
         <v>474</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>112</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>502</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
         <v>317</v>
@@ -10271,16 +10915,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>457</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G29" t="s">
         <v>318</v>
@@ -10288,117 +10932,123 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>457</v>
       </c>
       <c r="E30" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>453</v>
       </c>
       <c r="G31" t="s">
         <v>309</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
         <v>319</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
         <v>551</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
         <v>294</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
         <v>364</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
         <v>342</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>295</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
         <v>343</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" t="s">
         <v>301</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>571</v>
       </c>
     </row>
@@ -10406,7 +11056,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>427</v>
       </c>
     </row>
@@ -10414,7 +11064,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10422,7 +11072,7 @@
       <c r="G42" t="s">
         <v>323</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10430,7 +11080,7 @@
       <c r="G43" t="s">
         <v>334</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10438,7 +11088,7 @@
       <c r="G44" t="s">
         <v>335</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -10446,7 +11096,7 @@
       <c r="G45" t="s">
         <v>377</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10454,7 +11104,7 @@
       <c r="G46" t="s">
         <v>376</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>125</v>
       </c>
     </row>
@@ -10462,7 +11112,7 @@
       <c r="G47" t="s">
         <v>209</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>476</v>
       </c>
     </row>
@@ -10470,7 +11120,7 @@
       <c r="G48" t="s">
         <v>336</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>211</v>
       </c>
     </row>
@@ -10478,7 +11128,7 @@
       <c r="G49" t="s">
         <v>373</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -10486,7 +11136,7 @@
       <c r="G50" t="s">
         <v>402</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>576</v>
       </c>
     </row>
@@ -10494,7 +11144,7 @@
       <c r="G51" t="s">
         <v>337</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10502,7 +11152,7 @@
       <c r="G52" t="s">
         <v>390</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10510,7 +11160,7 @@
       <c r="G53" t="s">
         <v>365</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10518,7 +11168,7 @@
       <c r="G54" t="s">
         <v>302</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>516</v>
       </c>
     </row>
@@ -10526,7 +11176,7 @@
       <c r="G55" t="s">
         <v>326</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>499</v>
       </c>
     </row>
@@ -10534,7 +11184,7 @@
       <c r="G56" t="s">
         <v>327</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>129</v>
       </c>
     </row>
@@ -10542,7 +11192,7 @@
       <c r="G57" t="s">
         <v>328</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>380</v>
       </c>
     </row>
@@ -10550,7 +11200,7 @@
       <c r="G58" t="s">
         <v>338</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>493</v>
       </c>
     </row>
@@ -10558,7 +11208,7 @@
       <c r="G59" t="s">
         <v>347</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10566,7 +11216,7 @@
       <c r="G60" t="s">
         <v>371</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -10574,7 +11224,7 @@
       <c r="G61" t="s">
         <v>344</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10582,7 +11232,7 @@
       <c r="G62" t="s">
         <v>345</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10590,7 +11240,7 @@
       <c r="G63" t="s">
         <v>403</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10598,7 +11248,7 @@
       <c r="G64" t="s">
         <v>404</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10606,7 +11256,7 @@
       <c r="G65" t="s">
         <v>379</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10614,7 +11264,7 @@
       <c r="G66" t="s">
         <v>348</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>472</v>
       </c>
     </row>
@@ -10622,7 +11272,7 @@
       <c r="G67" t="s">
         <v>303</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>507</v>
       </c>
     </row>
@@ -10630,7 +11280,7 @@
       <c r="G68" t="s">
         <v>572</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>212</v>
       </c>
     </row>
@@ -10638,7 +11288,7 @@
       <c r="G69" t="s">
         <v>349</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>423</v>
       </c>
     </row>
@@ -10646,7 +11296,7 @@
       <c r="G70" t="s">
         <v>444</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>477</v>
       </c>
     </row>
@@ -10654,7 +11304,7 @@
       <c r="G71" t="s">
         <v>339</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -10662,7 +11312,7 @@
       <c r="G72" t="s">
         <v>445</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -10670,7 +11320,7 @@
       <c r="G73" t="s">
         <v>296</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>139</v>
       </c>
     </row>
@@ -10678,7 +11328,7 @@
       <c r="G74" t="s">
         <v>552</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>140</v>
       </c>
     </row>
@@ -10686,7 +11336,7 @@
       <c r="G75" t="s">
         <v>378</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>195</v>
       </c>
     </row>
@@ -10694,7 +11344,7 @@
       <c r="G76" t="s">
         <v>314</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>196</v>
       </c>
     </row>
@@ -10702,7 +11352,7 @@
       <c r="G77" t="s">
         <v>320</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>488</v>
       </c>
     </row>
@@ -10710,7 +11360,7 @@
       <c r="G78" t="s">
         <v>325</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>501</v>
       </c>
     </row>
@@ -10718,7 +11368,7 @@
       <c r="G79" t="s">
         <v>463</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -10726,7 +11376,7 @@
       <c r="G80" t="s">
         <v>366</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>142</v>
       </c>
     </row>
@@ -10734,7 +11384,7 @@
       <c r="G81" t="s">
         <v>304</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>143</v>
       </c>
     </row>
@@ -10742,7 +11392,7 @@
       <c r="G82" t="s">
         <v>315</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10750,7 +11400,7 @@
       <c r="G83" t="s">
         <v>321</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>144</v>
       </c>
     </row>
@@ -10758,7 +11408,7 @@
       <c r="G84" t="s">
         <v>310</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>145</v>
       </c>
     </row>
@@ -10766,7 +11416,7 @@
       <c r="G85" t="s">
         <v>573</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -10774,7 +11424,7 @@
       <c r="G86" t="s">
         <v>305</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>517</v>
       </c>
     </row>
@@ -10782,7 +11432,7 @@
       <c r="G87" t="s">
         <v>322</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>198</v>
       </c>
     </row>
@@ -10790,7 +11440,7 @@
       <c r="G88" t="s">
         <v>306</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>487</v>
       </c>
     </row>
@@ -10798,7 +11448,7 @@
       <c r="G89" t="s">
         <v>307</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10806,7 +11456,7 @@
       <c r="G90" t="s">
         <v>340</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>200</v>
       </c>
     </row>
@@ -10814,7 +11464,7 @@
       <c r="G91" t="s">
         <v>346</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>213</v>
       </c>
     </row>
@@ -10822,7 +11472,7 @@
       <c r="G92" t="s">
         <v>329</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10830,7 +11480,7 @@
       <c r="G93" t="s">
         <v>374</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10838,7 +11488,7 @@
       <c r="G94" t="s">
         <v>311</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>470</v>
       </c>
     </row>
@@ -10846,177 +11496,177 @@
       <c r="G95" t="s">
         <v>312</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7060" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8166" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1826,6 +1826,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1839,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="206" x14ac:knownFonts="1">
+  <fonts count="238" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3137,8 +3143,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5146,8 +5354,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="347">
+  <borders count="411">
     <border>
       <left/>
       <right/>
@@ -8657,6 +9171,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8667,7 +9833,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="266">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9345,52 +10511,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="330" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="330" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="333" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="333" fontId="192" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="336" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="336" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="339" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="339" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="345" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="345" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="336" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="336" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="348" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="348" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="348" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="348" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="357" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="360" fontId="208" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="363" fontId="209" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="366" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="212" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="372" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="363" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="375" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="375" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="384" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="387" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="390" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="393" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="399" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="390" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="402" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="402" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11070,7 +12332,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>323</v>
+        <v>586</v>
       </c>
       <c r="Z42" t="s">
         <v>121</v>
@@ -11078,7 +12340,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="Z43" t="s">
         <v>122</v>
@@ -11086,7 +12348,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Z44" t="s">
         <v>123</v>
@@ -11094,7 +12356,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="Z45" t="s">
         <v>124</v>
@@ -11102,7 +12364,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z46" t="s">
         <v>125</v>
@@ -11110,7 +12372,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="Z47" t="s">
         <v>476</v>
@@ -11118,7 +12380,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="Z48" t="s">
         <v>211</v>
@@ -11126,7 +12388,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="Z49" t="s">
         <v>77</v>
@@ -11134,7 +12396,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="Z50" t="s">
         <v>576</v>
@@ -11142,7 +12404,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="Z51" t="s">
         <v>126</v>
@@ -11150,7 +12412,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="Z52" t="s">
         <v>127</v>
@@ -11158,7 +12420,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="Z53" t="s">
         <v>128</v>
@@ -11166,7 +12428,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="Z54" t="s">
         <v>516</v>
@@ -11174,7 +12436,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="Z55" t="s">
         <v>499</v>
@@ -11182,7 +12444,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Z56" t="s">
         <v>129</v>
@@ -11190,7 +12452,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Z57" t="s">
         <v>380</v>
@@ -11198,7 +12460,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>338</v>
+        <v>587</v>
       </c>
       <c r="Z58" t="s">
         <v>493</v>
@@ -11206,7 +12468,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="Z59" t="s">
         <v>130</v>
@@ -11214,7 +12476,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="Z60" t="s">
         <v>131</v>
@@ -11222,7 +12484,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Z61" t="s">
         <v>132</v>
@@ -11230,7 +12492,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="Z62" t="s">
         <v>133</v>
@@ -11238,7 +12500,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>403</v>
+        <v>344</v>
       </c>
       <c r="Z63" t="s">
         <v>134</v>
@@ -11246,7 +12508,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="Z64" t="s">
         <v>135</v>
@@ -11254,7 +12516,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="Z65" t="s">
         <v>136</v>
@@ -11262,7 +12524,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="Z66" t="s">
         <v>472</v>
@@ -11270,7 +12532,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="Z67" t="s">
         <v>507</v>
@@ -11278,7 +12540,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>572</v>
+        <v>348</v>
       </c>
       <c r="Z68" t="s">
         <v>212</v>
@@ -11286,7 +12548,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="Z69" t="s">
         <v>423</v>
@@ -11294,7 +12556,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>444</v>
+        <v>572</v>
       </c>
       <c r="Z70" t="s">
         <v>477</v>
@@ -11302,7 +12564,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Z71" t="s">
         <v>137</v>
@@ -11310,7 +12572,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Z72" t="s">
         <v>138</v>
@@ -11318,7 +12580,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="Z73" t="s">
         <v>139</v>
@@ -11326,7 +12588,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>552</v>
+        <v>445</v>
       </c>
       <c r="Z74" t="s">
         <v>140</v>
@@ -11334,7 +12596,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>378</v>
+        <v>296</v>
       </c>
       <c r="Z75" t="s">
         <v>195</v>
@@ -11342,7 +12604,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>314</v>
+        <v>552</v>
       </c>
       <c r="Z76" t="s">
         <v>196</v>
@@ -11350,7 +12612,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="Z77" t="s">
         <v>488</v>
@@ -11358,7 +12620,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="Z78" t="s">
         <v>501</v>
@@ -11366,7 +12628,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>463</v>
+        <v>320</v>
       </c>
       <c r="Z79" t="s">
         <v>141</v>
@@ -11374,7 +12636,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="Z80" t="s">
         <v>142</v>
@@ -11382,7 +12644,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>304</v>
+        <v>463</v>
       </c>
       <c r="Z81" t="s">
         <v>143</v>
@@ -11390,7 +12652,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="Z82" t="s">
         <v>529</v>
@@ -11398,7 +12660,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="Z83" t="s">
         <v>144</v>
@@ -11406,7 +12668,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Z84" t="s">
         <v>145</v>
@@ -11414,7 +12676,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>573</v>
+        <v>321</v>
       </c>
       <c r="Z85" t="s">
         <v>197</v>
@@ -11422,7 +12684,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Z86" t="s">
         <v>517</v>
@@ -11430,7 +12692,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>322</v>
+        <v>573</v>
       </c>
       <c r="Z87" t="s">
         <v>198</v>
@@ -11438,7 +12700,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z88" t="s">
         <v>487</v>
@@ -11446,7 +12708,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="Z89" t="s">
         <v>199</v>
@@ -11454,7 +12716,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="Z90" t="s">
         <v>200</v>
@@ -11462,7 +12724,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="Z91" t="s">
         <v>213</v>
@@ -11470,7 +12732,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="Z92" t="s">
         <v>146</v>
@@ -11478,7 +12740,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="Z93" t="s">
         <v>201</v>
@@ -11486,7 +12748,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="Z94" t="s">
         <v>470</v>
@@ -11494,18 +12756,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="Z95" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>311</v>
+      </c>
       <c r="Z96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>312</v>
+      </c>
       <c r="Z97" t="s">
         <v>203</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -31,7 +31,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -45,13 +45,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8166" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8717" uniqueCount="589">
   <si>
     <t>description</t>
   </si>
@@ -1832,6 +1832,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1842,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="238" x14ac:knownFonts="1">
+  <fonts count="254" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3345,8 +3348,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5660,8 +5764,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="411">
+  <borders count="443">
     <border>
       <left/>
       <right/>
@@ -8341,6 +8598,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -9833,7 +10416,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="282">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10607,52 +11190,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="384" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="384" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="387" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="387" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="390" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="390" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="393" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="393" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="228" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="399" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="399" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="390" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="390" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="402" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="402" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="402" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="402" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="411" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="414" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="417" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="420" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="426" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="429" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="429" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11010,7 +11641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11095,24 +11726,21 @@
         <v>430</v>
       </c>
       <c r="Y1" t="s">
-        <v>583</v>
+        <v>54</v>
       </c>
       <c r="Z1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC1" t="s">
-        <v>57</v>
+        <v>457</v>
       </c>
       <c r="AD1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -11190,24 +11818,21 @@
         <v>431</v>
       </c>
       <c r="Y2" t="s">
-        <v>585</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AA2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AC2" t="s">
-        <v>181</v>
+        <v>467</v>
       </c>
       <c r="AD2" t="s">
-        <v>467</v>
-      </c>
-      <c r="AE2" t="s">
         <v>524</v>
       </c>
     </row>
@@ -11278,22 +11903,22 @@
       <c r="X3" t="s">
         <v>432</v>
       </c>
+      <c r="Y3" t="s">
+        <v>97</v>
+      </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AA3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB3" t="s">
-        <v>175</v>
+        <v>398</v>
       </c>
       <c r="AC3" t="s">
-        <v>398</v>
+        <v>182</v>
       </c>
       <c r="AD3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -11361,22 +11986,22 @@
       <c r="X4" t="s">
         <v>433</v>
       </c>
+      <c r="Y4" t="s">
+        <v>388</v>
+      </c>
       <c r="Z4" t="s">
-        <v>388</v>
+        <v>171</v>
       </c>
       <c r="AA4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AB4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC4" t="s">
-        <v>182</v>
+        <v>458</v>
       </c>
       <c r="AD4" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -11435,22 +12060,22 @@
       <c r="W5" t="s">
         <v>393</v>
       </c>
+      <c r="Y5" t="s">
+        <v>389</v>
+      </c>
       <c r="Z5" t="s">
-        <v>389</v>
+        <v>172</v>
       </c>
       <c r="AA5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC5" t="s">
-        <v>183</v>
+        <v>459</v>
       </c>
       <c r="AD5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -11503,22 +12128,22 @@
       <c r="W6" t="s">
         <v>395</v>
       </c>
+      <c r="Y6" t="s">
+        <v>98</v>
+      </c>
       <c r="Z6" t="s">
-        <v>98</v>
+        <v>479</v>
       </c>
       <c r="AA6" t="s">
-        <v>479</v>
+        <v>178</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC6" t="s">
-        <v>184</v>
+        <v>460</v>
       </c>
       <c r="AD6" t="s">
-        <v>460</v>
-      </c>
-      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -11565,22 +12190,22 @@
       <c r="W7" t="s">
         <v>394</v>
       </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
       <c r="Z7" t="s">
-        <v>99</v>
+        <v>480</v>
       </c>
       <c r="AA7" t="s">
-        <v>480</v>
+        <v>179</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC7" t="s">
-        <v>185</v>
+        <v>461</v>
       </c>
       <c r="AD7" t="s">
-        <v>461</v>
-      </c>
-      <c r="AE7" t="s">
         <v>577</v>
       </c>
     </row>
@@ -11621,22 +12246,22 @@
       <c r="W8" t="s">
         <v>396</v>
       </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AA8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC8" t="s">
-        <v>186</v>
+        <v>462</v>
       </c>
       <c r="AD8" t="s">
-        <v>462</v>
-      </c>
-      <c r="AE8" t="s">
         <v>578</v>
       </c>
     </row>
@@ -11677,13 +12302,13 @@
       <c r="W9" t="s">
         <v>397</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>579</v>
       </c>
     </row>
@@ -11718,13 +12343,13 @@
       <c r="T10" t="s">
         <v>443</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>255</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -11756,13 +12381,13 @@
       <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -11794,13 +12419,13 @@
       <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -11829,13 +12454,13 @@
       <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>360</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>508</v>
       </c>
     </row>
@@ -11864,13 +12489,13 @@
       <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>525</v>
       </c>
     </row>
@@ -11896,13 +12521,13 @@
       <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11920,7 +12545,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>588</v>
       </c>
       <c r="Q16" t="s">
         <v>534</v>
@@ -11928,13 +12553,13 @@
       <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11952,15 +12577,15 @@
         <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>535</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>495</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>531</v>
       </c>
     </row>
@@ -11977,10 +12602,13 @@
       <c r="K18" t="s">
         <v>490</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>509</v>
       </c>
     </row>
@@ -11997,10 +12625,10 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>527</v>
       </c>
     </row>
@@ -12017,10 +12645,10 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>528</v>
       </c>
     </row>
@@ -12037,10 +12665,10 @@
       <c r="K21" t="s">
         <v>414</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>532</v>
       </c>
     </row>
@@ -12057,10 +12685,10 @@
       <c r="K22" t="s">
         <v>504</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>518</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -12077,10 +12705,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>108</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>580</v>
       </c>
     </row>
@@ -12097,16 +12725,16 @@
       <c r="K24" t="s">
         <v>426</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>109</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>583</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>63</v>
@@ -12117,16 +12745,16 @@
       <c r="K25" t="s">
         <v>567</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>110</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>482</v>
@@ -12137,16 +12765,16 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>111</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>223</v>
@@ -12157,16 +12785,16 @@
       <c r="K27" t="s">
         <v>474</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>112</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>224</v>
@@ -12177,13 +12805,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>457</v>
       </c>
       <c r="E29" t="s">
         <v>502</v>
@@ -12194,13 +12822,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>457</v>
+        <v>225</v>
       </c>
       <c r="E30" t="s">
         <v>503</v>
@@ -12208,21 +12836,18 @@
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>225</v>
-      </c>
       <c r="E31" t="s">
         <v>453</v>
       </c>
       <c r="G31" t="s">
         <v>309</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>115</v>
       </c>
     </row>
@@ -12233,7 +12858,7 @@
       <c r="G32" t="s">
         <v>319</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>116</v>
       </c>
     </row>
@@ -12244,7 +12869,7 @@
       <c r="G33" t="s">
         <v>551</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>117</v>
       </c>
     </row>
@@ -12255,7 +12880,7 @@
       <c r="G34" t="s">
         <v>294</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -12266,7 +12891,7 @@
       <c r="G35" t="s">
         <v>364</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -12277,7 +12902,7 @@
       <c r="G36" t="s">
         <v>342</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -12288,7 +12913,7 @@
       <c r="G37" t="s">
         <v>295</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>372</v>
       </c>
     </row>
@@ -12299,7 +12924,7 @@
       <c r="G38" t="s">
         <v>343</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>469</v>
       </c>
     </row>
@@ -12310,7 +12935,7 @@
       <c r="G39" t="s">
         <v>301</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>571</v>
       </c>
     </row>
@@ -12318,7 +12943,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>427</v>
       </c>
     </row>
@@ -12326,7 +12951,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -12334,7 +12959,7 @@
       <c r="G42" t="s">
         <v>586</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>121</v>
       </c>
     </row>
@@ -12342,7 +12967,7 @@
       <c r="G43" t="s">
         <v>323</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12350,7 +12975,7 @@
       <c r="G44" t="s">
         <v>334</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -12358,7 +12983,7 @@
       <c r="G45" t="s">
         <v>335</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12366,7 +12991,7 @@
       <c r="G46" t="s">
         <v>377</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>125</v>
       </c>
     </row>
@@ -12374,7 +12999,7 @@
       <c r="G47" t="s">
         <v>376</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>476</v>
       </c>
     </row>
@@ -12382,7 +13007,7 @@
       <c r="G48" t="s">
         <v>209</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>211</v>
       </c>
     </row>
@@ -12390,7 +13015,7 @@
       <c r="G49" t="s">
         <v>336</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -12398,7 +13023,7 @@
       <c r="G50" t="s">
         <v>373</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>576</v>
       </c>
     </row>
@@ -12406,7 +13031,7 @@
       <c r="G51" t="s">
         <v>402</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12414,7 +13039,7 @@
       <c r="G52" t="s">
         <v>337</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12422,7 +13047,7 @@
       <c r="G53" t="s">
         <v>390</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12430,7 +13055,7 @@
       <c r="G54" t="s">
         <v>365</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>516</v>
       </c>
     </row>
@@ -12438,7 +13063,7 @@
       <c r="G55" t="s">
         <v>302</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>499</v>
       </c>
     </row>
@@ -12446,7 +13071,7 @@
       <c r="G56" t="s">
         <v>326</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12454,7 +13079,7 @@
       <c r="G57" t="s">
         <v>327</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>380</v>
       </c>
     </row>
@@ -12462,7 +13087,7 @@
       <c r="G58" t="s">
         <v>587</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>493</v>
       </c>
     </row>
@@ -12470,7 +13095,7 @@
       <c r="G59" t="s">
         <v>328</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12478,7 +13103,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12486,7 +13111,7 @@
       <c r="G61" t="s">
         <v>347</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -12494,7 +13119,7 @@
       <c r="G62" t="s">
         <v>371</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -12502,7 +13127,7 @@
       <c r="G63" t="s">
         <v>344</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -12510,7 +13135,7 @@
       <c r="G64" t="s">
         <v>345</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>135</v>
       </c>
     </row>
@@ -12518,7 +13143,7 @@
       <c r="G65" t="s">
         <v>403</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12526,7 +13151,7 @@
       <c r="G66" t="s">
         <v>404</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>472</v>
       </c>
     </row>
@@ -12534,7 +13159,7 @@
       <c r="G67" t="s">
         <v>379</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>507</v>
       </c>
     </row>
@@ -12542,7 +13167,7 @@
       <c r="G68" t="s">
         <v>348</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>212</v>
       </c>
     </row>
@@ -12550,7 +13175,7 @@
       <c r="G69" t="s">
         <v>303</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>423</v>
       </c>
     </row>
@@ -12558,7 +13183,7 @@
       <c r="G70" t="s">
         <v>572</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>477</v>
       </c>
     </row>
@@ -12566,7 +13191,7 @@
       <c r="G71" t="s">
         <v>349</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -12574,7 +13199,7 @@
       <c r="G72" t="s">
         <v>444</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -12582,7 +13207,7 @@
       <c r="G73" t="s">
         <v>339</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>139</v>
       </c>
     </row>
@@ -12590,7 +13215,7 @@
       <c r="G74" t="s">
         <v>445</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12598,7 +13223,7 @@
       <c r="G75" t="s">
         <v>296</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>195</v>
       </c>
     </row>
@@ -12606,7 +13231,7 @@
       <c r="G76" t="s">
         <v>552</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>196</v>
       </c>
     </row>
@@ -12614,7 +13239,7 @@
       <c r="G77" t="s">
         <v>378</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>488</v>
       </c>
     </row>
@@ -12622,7 +13247,7 @@
       <c r="G78" t="s">
         <v>314</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>501</v>
       </c>
     </row>
@@ -12630,7 +13255,7 @@
       <c r="G79" t="s">
         <v>320</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -12638,7 +13263,7 @@
       <c r="G80" t="s">
         <v>325</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>142</v>
       </c>
     </row>
@@ -12646,7 +13271,7 @@
       <c r="G81" t="s">
         <v>463</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>143</v>
       </c>
     </row>
@@ -12654,7 +13279,7 @@
       <c r="G82" t="s">
         <v>366</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>529</v>
       </c>
     </row>
@@ -12662,7 +13287,7 @@
       <c r="G83" t="s">
         <v>304</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>144</v>
       </c>
     </row>
@@ -12670,7 +13295,7 @@
       <c r="G84" t="s">
         <v>315</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>145</v>
       </c>
     </row>
@@ -12678,7 +13303,7 @@
       <c r="G85" t="s">
         <v>321</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -12686,7 +13311,7 @@
       <c r="G86" t="s">
         <v>310</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>517</v>
       </c>
     </row>
@@ -12694,7 +13319,7 @@
       <c r="G87" t="s">
         <v>573</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>198</v>
       </c>
     </row>
@@ -12702,7 +13327,7 @@
       <c r="G88" t="s">
         <v>305</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>487</v>
       </c>
     </row>
@@ -12710,7 +13335,7 @@
       <c r="G89" t="s">
         <v>322</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>199</v>
       </c>
     </row>
@@ -12718,7 +13343,7 @@
       <c r="G90" t="s">
         <v>306</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>200</v>
       </c>
     </row>
@@ -12726,7 +13351,7 @@
       <c r="G91" t="s">
         <v>307</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>213</v>
       </c>
     </row>
@@ -12734,7 +13359,7 @@
       <c r="G92" t="s">
         <v>340</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12742,7 +13367,7 @@
       <c r="G93" t="s">
         <v>346</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>201</v>
       </c>
     </row>
@@ -12750,7 +13375,7 @@
       <c r="G94" t="s">
         <v>329</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>470</v>
       </c>
     </row>
@@ -12758,7 +13383,7 @@
       <c r="G95" t="s">
         <v>374</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>471</v>
       </c>
     </row>
@@ -12766,7 +13391,7 @@
       <c r="G96" t="s">
         <v>311</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>202</v>
       </c>
     </row>
@@ -12774,167 +13399,167 @@
       <c r="G97" t="s">
         <v>312</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8717" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10380" uniqueCount="593">
   <si>
     <t>description</t>
   </si>
@@ -1835,6 +1835,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1854,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="254" x14ac:knownFonts="1">
+  <fonts count="302" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3449,8 +3461,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5917,8 +6232,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="443">
+  <borders count="539">
     <border>
       <left/>
       <right/>
@@ -8598,6 +9372,984 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -10416,7 +12168,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="330">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11238,52 +12990,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="411" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="411" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="414" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="414" fontId="240" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="417" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="417" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="420" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="420" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="244" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="426" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="426" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="429" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="429" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="429" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="429" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="253" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="438" fontId="254" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="441" fontId="256" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="444" fontId="257" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="447" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="260" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="453" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="444" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="456" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="456" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="465" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="468" fontId="272" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="471" fontId="273" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="474" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="276" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="480" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="471" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="285" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="501" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="498" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="510" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="510" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11641,7 +13537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12726,7 +14622,7 @@
         <v>426</v>
       </c>
       <c r="Y24" t="s">
-        <v>109</v>
+        <v>589</v>
       </c>
       <c r="AD24" t="s">
         <v>581</v>
@@ -12746,7 +14642,7 @@
         <v>567</v>
       </c>
       <c r="Y25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD25" t="s">
         <v>582</v>
@@ -12766,7 +14662,7 @@
         <v>85</v>
       </c>
       <c r="Y26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD26" t="s">
         <v>234</v>
@@ -12786,7 +14682,7 @@
         <v>474</v>
       </c>
       <c r="Y27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD27" t="s">
         <v>235</v>
@@ -12806,7 +14702,7 @@
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>361</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -12823,7 +14719,7 @@
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>113</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30">
@@ -12837,7 +14733,7 @@
         <v>214</v>
       </c>
       <c r="Y30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -12848,7 +14744,7 @@
         <v>309</v>
       </c>
       <c r="Y31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -12859,7 +14755,7 @@
         <v>319</v>
       </c>
       <c r="Y32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -12870,7 +14766,7 @@
         <v>551</v>
       </c>
       <c r="Y33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -12881,7 +14777,7 @@
         <v>294</v>
       </c>
       <c r="Y34" t="s">
-        <v>118</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35">
@@ -12892,7 +14788,7 @@
         <v>364</v>
       </c>
       <c r="Y35" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -12903,7 +14799,7 @@
         <v>342</v>
       </c>
       <c r="Y36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -12914,7 +14810,7 @@
         <v>295</v>
       </c>
       <c r="Y37" t="s">
-        <v>372</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
@@ -12925,7 +14821,7 @@
         <v>343</v>
       </c>
       <c r="Y38" t="s">
-        <v>469</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -12936,7 +14832,7 @@
         <v>301</v>
       </c>
       <c r="Y39" t="s">
-        <v>571</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40">
@@ -12944,7 +14840,7 @@
         <v>78</v>
       </c>
       <c r="Y40" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41">
@@ -12952,7 +14848,7 @@
         <v>210</v>
       </c>
       <c r="Y41" t="s">
-        <v>120</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42">
@@ -12960,7 +14856,7 @@
         <v>586</v>
       </c>
       <c r="Y42" t="s">
-        <v>121</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43">
@@ -12968,7 +14864,7 @@
         <v>323</v>
       </c>
       <c r="Y43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -12976,7 +14872,7 @@
         <v>334</v>
       </c>
       <c r="Y44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
@@ -12984,7 +14880,7 @@
         <v>335</v>
       </c>
       <c r="Y45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
@@ -12992,7 +14888,7 @@
         <v>377</v>
       </c>
       <c r="Y46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
@@ -13000,7 +14896,7 @@
         <v>376</v>
       </c>
       <c r="Y47" t="s">
-        <v>476</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
@@ -13008,7 +14904,7 @@
         <v>209</v>
       </c>
       <c r="Y48" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
@@ -13016,7 +14912,7 @@
         <v>336</v>
       </c>
       <c r="Y49" t="s">
-        <v>77</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50">
@@ -13024,7 +14920,7 @@
         <v>373</v>
       </c>
       <c r="Y50" t="s">
-        <v>576</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51">
@@ -13032,7 +14928,7 @@
         <v>402</v>
       </c>
       <c r="Y51" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -13040,7 +14936,7 @@
         <v>337</v>
       </c>
       <c r="Y52" t="s">
-        <v>127</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53">
@@ -13048,7 +14944,7 @@
         <v>390</v>
       </c>
       <c r="Y53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -13056,7 +14952,7 @@
         <v>365</v>
       </c>
       <c r="Y54" t="s">
-        <v>516</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
@@ -13064,7 +14960,7 @@
         <v>302</v>
       </c>
       <c r="Y55" t="s">
-        <v>499</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
@@ -13072,7 +14968,7 @@
         <v>326</v>
       </c>
       <c r="Y56" t="s">
-        <v>129</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57">
@@ -13080,7 +14976,7 @@
         <v>327</v>
       </c>
       <c r="Y57" t="s">
-        <v>380</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58">
@@ -13088,7 +14984,7 @@
         <v>587</v>
       </c>
       <c r="Y58" t="s">
-        <v>493</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -13096,7 +14992,7 @@
         <v>328</v>
       </c>
       <c r="Y59" t="s">
-        <v>130</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60">
@@ -13104,7 +15000,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>131</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61">
@@ -13112,7 +15008,7 @@
         <v>347</v>
       </c>
       <c r="Y61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
@@ -13120,7 +15016,7 @@
         <v>371</v>
       </c>
       <c r="Y62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
@@ -13128,7 +15024,7 @@
         <v>344</v>
       </c>
       <c r="Y63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
@@ -13136,7 +15032,7 @@
         <v>345</v>
       </c>
       <c r="Y64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
@@ -13144,7 +15040,7 @@
         <v>403</v>
       </c>
       <c r="Y65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
@@ -13152,7 +15048,7 @@
         <v>404</v>
       </c>
       <c r="Y66" t="s">
-        <v>472</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
@@ -13160,7 +15056,7 @@
         <v>379</v>
       </c>
       <c r="Y67" t="s">
-        <v>507</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68">
@@ -13168,7 +15064,7 @@
         <v>348</v>
       </c>
       <c r="Y68" t="s">
-        <v>212</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69">
@@ -13176,7 +15072,7 @@
         <v>303</v>
       </c>
       <c r="Y69" t="s">
-        <v>423</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70">
@@ -13184,7 +15080,7 @@
         <v>572</v>
       </c>
       <c r="Y70" t="s">
-        <v>477</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71">
@@ -13192,7 +15088,7 @@
         <v>349</v>
       </c>
       <c r="Y71" t="s">
-        <v>137</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72">
@@ -13200,7 +15096,7 @@
         <v>444</v>
       </c>
       <c r="Y72" t="s">
-        <v>138</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73">
@@ -13208,7 +15104,7 @@
         <v>339</v>
       </c>
       <c r="Y73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
@@ -13216,7 +15112,7 @@
         <v>445</v>
       </c>
       <c r="Y74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -13224,7 +15120,7 @@
         <v>296</v>
       </c>
       <c r="Y75" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
@@ -13232,7 +15128,7 @@
         <v>552</v>
       </c>
       <c r="Y76" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
@@ -13240,7 +15136,7 @@
         <v>378</v>
       </c>
       <c r="Y77" t="s">
-        <v>488</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
@@ -13248,7 +15144,7 @@
         <v>314</v>
       </c>
       <c r="Y78" t="s">
-        <v>501</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
@@ -13256,7 +15152,7 @@
         <v>320</v>
       </c>
       <c r="Y79" t="s">
-        <v>141</v>
+        <v>488</v>
       </c>
     </row>
     <row r="80">
@@ -13264,7 +15160,7 @@
         <v>325</v>
       </c>
       <c r="Y80" t="s">
-        <v>142</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81">
@@ -13272,7 +15168,7 @@
         <v>463</v>
       </c>
       <c r="Y81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
@@ -13280,7 +15176,7 @@
         <v>366</v>
       </c>
       <c r="Y82" t="s">
-        <v>529</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
@@ -13288,7 +15184,7 @@
         <v>304</v>
       </c>
       <c r="Y83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
@@ -13296,7 +15192,7 @@
         <v>315</v>
       </c>
       <c r="Y84" t="s">
-        <v>145</v>
+        <v>529</v>
       </c>
     </row>
     <row r="85">
@@ -13304,7 +15200,7 @@
         <v>321</v>
       </c>
       <c r="Y85" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
@@ -13312,7 +15208,7 @@
         <v>310</v>
       </c>
       <c r="Y86" t="s">
-        <v>517</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87">
@@ -13320,7 +15216,7 @@
         <v>573</v>
       </c>
       <c r="Y87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
@@ -13328,7 +15224,7 @@
         <v>305</v>
       </c>
       <c r="Y88" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89">
@@ -13336,7 +15232,7 @@
         <v>322</v>
       </c>
       <c r="Y89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -13344,7 +15240,7 @@
         <v>306</v>
       </c>
       <c r="Y90" t="s">
-        <v>200</v>
+        <v>487</v>
       </c>
     </row>
     <row r="91">
@@ -13352,7 +15248,7 @@
         <v>307</v>
       </c>
       <c r="Y91" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
@@ -13360,7 +15256,7 @@
         <v>340</v>
       </c>
       <c r="Y92" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
@@ -13368,7 +15264,7 @@
         <v>346</v>
       </c>
       <c r="Y93" t="s">
-        <v>201</v>
+        <v>592</v>
       </c>
     </row>
     <row r="94">
@@ -13376,7 +15272,7 @@
         <v>329</v>
       </c>
       <c r="Y94" t="s">
-        <v>470</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95">
@@ -13384,7 +15280,7 @@
         <v>374</v>
       </c>
       <c r="Y95" t="s">
-        <v>471</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
@@ -13392,7 +15288,7 @@
         <v>311</v>
       </c>
       <c r="Y96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97">
@@ -13400,166 +15296,186 @@
         <v>312</v>
       </c>
       <c r="Y97" t="s">
-        <v>203</v>
+        <v>470</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>204</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>536</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>553</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>417</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>149</v>
+        <v>554</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>150</v>
+        <v>417</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>478</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>163</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>591</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10380" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10936" uniqueCount="595">
   <si>
     <t>description</t>
   </si>
@@ -1847,6 +1847,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1860,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="302" x14ac:knownFonts="1">
+  <fonts count="318" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3764,8 +3770,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6691,8 +6798,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="539">
+  <borders count="571">
     <border>
       <left/>
       <right/>
@@ -9372,6 +9632,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -12168,7 +12754,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="346">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13134,52 +13720,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="288" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="501" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="501" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="292" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="498" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="498" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="510" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="510" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="510" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="510" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="519" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="522" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="525" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="528" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="534" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="525" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="537" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="537" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13918,7 +14552,7 @@
         <v>473</v>
       </c>
       <c r="G5" t="s">
-        <v>370</v>
+        <v>593</v>
       </c>
       <c r="H5" t="s">
         <v>489</v>
@@ -13992,7 +14626,7 @@
         <v>537</v>
       </c>
       <c r="G6" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="H6" t="s">
         <v>485</v>
@@ -14054,7 +14688,7 @@
         <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="H7" t="s">
         <v>481</v>
@@ -14116,7 +14750,7 @@
         <v>353</v>
       </c>
       <c r="G8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H8" t="s">
         <v>362</v>
@@ -14172,7 +14806,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="H9" t="s">
         <v>363</v>
@@ -14216,7 +14850,7 @@
         <v>350</v>
       </c>
       <c r="G10" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="H10" t="s">
         <v>486</v>
@@ -14257,7 +14891,7 @@
         <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="H11" t="s">
         <v>356</v>
@@ -14295,7 +14929,7 @@
         <v>354</v>
       </c>
       <c r="G12" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="H12" t="s">
         <v>357</v>
@@ -14333,7 +14967,7 @@
         <v>375</v>
       </c>
       <c r="G13" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="H13" t="s">
         <v>358</v>
@@ -14368,7 +15002,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="H14" t="s">
         <v>359</v>
@@ -14403,7 +15037,7 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K15" t="s">
         <v>540</v>
@@ -14435,7 +15069,7 @@
         <v>419</v>
       </c>
       <c r="G16" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
@@ -14467,7 +15101,7 @@
         <v>420</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>352</v>
       </c>
       <c r="K17" t="s">
         <v>82</v>
@@ -14493,7 +15127,7 @@
         <v>446</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>490</v>
@@ -14516,7 +15150,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>83</v>
@@ -14536,7 +15170,7 @@
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -14556,7 +15190,7 @@
         <v>254</v>
       </c>
       <c r="G21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K21" t="s">
         <v>414</v>
@@ -14576,7 +15210,7 @@
         <v>584</v>
       </c>
       <c r="G22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K22" t="s">
         <v>504</v>
@@ -14596,7 +15230,7 @@
         <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -14616,7 +15250,7 @@
         <v>355</v>
       </c>
       <c r="G24" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="K24" t="s">
         <v>426</v>
@@ -14636,7 +15270,7 @@
         <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="K25" t="s">
         <v>567</v>
@@ -14656,7 +15290,7 @@
         <v>482</v>
       </c>
       <c r="G26" t="s">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
@@ -14676,7 +15310,7 @@
         <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="K27" t="s">
         <v>474</v>
@@ -14696,7 +15330,7 @@
         <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -14713,7 +15347,7 @@
         <v>502</v>
       </c>
       <c r="G29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -14730,7 +15364,7 @@
         <v>503</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>318</v>
       </c>
       <c r="Y30" t="s">
         <v>113</v>
@@ -14741,7 +15375,7 @@
         <v>453</v>
       </c>
       <c r="G31" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="Y31" t="s">
         <v>114</v>
@@ -14752,7 +15386,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="Y32" t="s">
         <v>115</v>
@@ -14763,7 +15397,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>551</v>
+        <v>319</v>
       </c>
       <c r="Y33" t="s">
         <v>116</v>
@@ -14774,7 +15408,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>294</v>
+        <v>551</v>
       </c>
       <c r="Y34" t="s">
         <v>590</v>
@@ -14785,7 +15419,7 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="Y35" t="s">
         <v>117</v>
@@ -14796,7 +15430,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="Y36" t="s">
         <v>118</v>
@@ -14807,7 +15441,7 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="Y37" t="s">
         <v>208</v>
@@ -14818,7 +15452,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="Y38" t="s">
         <v>119</v>
@@ -14829,7 +15463,7 @@
         <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="Y39" t="s">
         <v>372</v>
@@ -14837,7 +15471,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="Y40" t="s">
         <v>469</v>
@@ -14845,7 +15479,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
         <v>571</v>
@@ -14853,7 +15487,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>586</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s">
         <v>427</v>
@@ -14861,7 +15495,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>323</v>
+        <v>586</v>
       </c>
       <c r="Y43" t="s">
         <v>120</v>
@@ -14869,7 +15503,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="Y44" t="s">
         <v>121</v>
@@ -14877,7 +15511,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y45" t="s">
         <v>122</v>
@@ -14885,7 +15519,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="Y46" t="s">
         <v>123</v>
@@ -14893,7 +15527,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y47" t="s">
         <v>124</v>
@@ -14901,7 +15535,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="Y48" t="s">
         <v>125</v>
@@ -14909,7 +15543,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="Y49" t="s">
         <v>476</v>
@@ -14917,7 +15551,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="Y50" t="s">
         <v>211</v>
@@ -14925,7 +15559,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="Y51" t="s">
         <v>77</v>
@@ -14933,7 +15567,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="Y52" t="s">
         <v>576</v>
@@ -14941,7 +15575,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="Y53" t="s">
         <v>126</v>
@@ -14949,7 +15583,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="Y54" t="s">
         <v>127</v>
@@ -14957,7 +15591,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="Y55" t="s">
         <v>128</v>
@@ -14965,7 +15599,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="Y56" t="s">
         <v>516</v>
@@ -14973,7 +15607,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y57" t="s">
         <v>499</v>
@@ -14981,7 +15615,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>587</v>
+        <v>327</v>
       </c>
       <c r="Y58" t="s">
         <v>129</v>
@@ -14989,7 +15623,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>328</v>
+        <v>587</v>
       </c>
       <c r="Y59" t="s">
         <v>380</v>
@@ -14997,7 +15631,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="Y60" t="s">
         <v>493</v>
@@ -15005,7 +15639,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="Y61" t="s">
         <v>130</v>
@@ -15013,7 +15647,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="Y62" t="s">
         <v>131</v>
@@ -15021,7 +15655,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="Y63" t="s">
         <v>132</v>
@@ -15029,7 +15663,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Y64" t="s">
         <v>133</v>
@@ -15037,7 +15671,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="Y65" t="s">
         <v>134</v>
@@ -15045,7 +15679,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y66" t="s">
         <v>135</v>
@@ -15053,7 +15687,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="Y67" t="s">
         <v>136</v>
@@ -15061,7 +15695,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="Y68" t="s">
         <v>472</v>
@@ -15069,7 +15703,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="Y69" t="s">
         <v>507</v>
@@ -15077,7 +15711,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>572</v>
+        <v>303</v>
       </c>
       <c r="Y70" t="s">
         <v>212</v>
@@ -15085,7 +15719,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>349</v>
+        <v>572</v>
       </c>
       <c r="Y71" t="s">
         <v>423</v>
@@ -15093,7 +15727,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>444</v>
+        <v>349</v>
       </c>
       <c r="Y72" t="s">
         <v>477</v>
@@ -15101,7 +15735,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>339</v>
+        <v>444</v>
       </c>
       <c r="Y73" t="s">
         <v>137</v>
@@ -15109,7 +15743,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>445</v>
+        <v>339</v>
       </c>
       <c r="Y74" t="s">
         <v>138</v>
@@ -15117,7 +15751,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>296</v>
+        <v>445</v>
       </c>
       <c r="Y75" t="s">
         <v>139</v>
@@ -15125,7 +15759,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>552</v>
+        <v>296</v>
       </c>
       <c r="Y76" t="s">
         <v>140</v>
@@ -15133,7 +15767,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>378</v>
+        <v>552</v>
       </c>
       <c r="Y77" t="s">
         <v>195</v>
@@ -15141,7 +15775,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>314</v>
+        <v>378</v>
       </c>
       <c r="Y78" t="s">
         <v>196</v>
@@ -15149,7 +15783,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Y79" t="s">
         <v>488</v>
@@ -15157,7 +15791,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Y80" t="s">
         <v>501</v>
@@ -15165,7 +15799,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>463</v>
+        <v>325</v>
       </c>
       <c r="Y81" t="s">
         <v>141</v>
@@ -15173,7 +15807,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>366</v>
+        <v>463</v>
       </c>
       <c r="Y82" t="s">
         <v>142</v>
@@ -15181,7 +15815,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>304</v>
+        <v>366</v>
       </c>
       <c r="Y83" t="s">
         <v>143</v>
@@ -15189,7 +15823,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="Y84" t="s">
         <v>529</v>
@@ -15197,7 +15831,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Y85" t="s">
         <v>144</v>
@@ -15205,7 +15839,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="Y86" t="s">
         <v>145</v>
@@ -15213,7 +15847,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>573</v>
+        <v>310</v>
       </c>
       <c r="Y87" t="s">
         <v>197</v>
@@ -15221,7 +15855,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>305</v>
+        <v>573</v>
       </c>
       <c r="Y88" t="s">
         <v>517</v>
@@ -15229,7 +15863,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="Y89" t="s">
         <v>198</v>
@@ -15237,7 +15871,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="Y90" t="s">
         <v>487</v>
@@ -15245,7 +15879,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y91" t="s">
         <v>199</v>
@@ -15253,7 +15887,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="Y92" t="s">
         <v>200</v>
@@ -15261,15 +15895,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Y93" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="Y94" t="s">
         <v>213</v>
@@ -15277,7 +15911,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="Y95" t="s">
         <v>146</v>
@@ -15285,7 +15919,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="Y96" t="s">
         <v>201</v>
@@ -15293,13 +15927,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y97" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>312</v>
+      </c>
       <c r="Y98" t="s">
         <v>471</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10936" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11493" uniqueCount="596">
   <si>
     <t>description</t>
   </si>
@@ -1853,6 +1853,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1863,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="318" x14ac:knownFonts="1">
+  <fonts count="334" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3871,8 +3874,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6951,8 +7055,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="571">
+  <borders count="603">
     <border>
       <left/>
       <right/>
@@ -9632,6 +9889,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -12754,7 +13337,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="362">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13768,52 +14351,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="519" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="519" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="522" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="522" fontId="304" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="525" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="525" fontId="305" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="528" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="528" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="308" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="534" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="534" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="525" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="525" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="537" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="537" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="537" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="537" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="317" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="546" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="549" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="552" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="555" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="561" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="552" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="564" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="564" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14171,7 +14802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15906,7 +16537,7 @@
         <v>346</v>
       </c>
       <c r="Y94" t="s">
-        <v>213</v>
+        <v>595</v>
       </c>
     </row>
     <row r="95">
@@ -15914,7 +16545,7 @@
         <v>329</v>
       </c>
       <c r="Y95" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96">
@@ -15922,7 +16553,7 @@
         <v>374</v>
       </c>
       <c r="Y96" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
@@ -15930,7 +16561,7 @@
         <v>311</v>
       </c>
       <c r="Y97" t="s">
-        <v>470</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98">
@@ -15938,181 +16569,186 @@
         <v>312</v>
       </c>
       <c r="Y98" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>202</v>
+        <v>471</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>536</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>147</v>
+        <v>553</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>554</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>417</v>
+        <v>554</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>148</v>
+        <v>417</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>478</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>161</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>591</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>162</v>
+        <v>591</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -21,39 +21,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11493" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12054" uniqueCount="602">
   <si>
     <t>description</t>
   </si>
@@ -1856,6 +1857,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1882,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="334" x14ac:knownFonts="1">
+  <fonts count="350" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3975,8 +3994,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7208,8 +7328,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="603">
+  <borders count="635">
     <border>
       <left/>
       <right/>
@@ -9889,6 +10162,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -13337,7 +13936,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="362">
+  <cellXfs count="378">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14399,52 +14998,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="546" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="546" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="549" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="549" fontId="320" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="552" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="552" fontId="321" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="555" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="555" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="323" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="324" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="561" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="561" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="552" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="552" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="564" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="564" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="564" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="564" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="333" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="573" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="576" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="579" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="582" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="588" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="579" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="591" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="591" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14802,7 +15449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14827,81 +15474,84 @@
         <v>519</v>
       </c>
       <c r="E1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>381</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>367</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>555</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>510</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>237</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>434</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>455</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>448</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>391</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>430</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>457</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -14919,81 +15569,84 @@
         <v>520</v>
       </c>
       <c r="E2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>483</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>500</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>350</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>418</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>464</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>556</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>513</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>447</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>465</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>251</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>215</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>435</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>456</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>454</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>415</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>431</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>467</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>524</v>
       </c>
     </row>
@@ -15010,76 +15663,76 @@
       <c r="D3" t="s">
         <v>566</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>491</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>399</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>511</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>383</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>375</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>368</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>557</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>514</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>466</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>238</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>216</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>436</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>450</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>416</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>432</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>398</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -15093,82 +15746,82 @@
       <c r="D4" t="s">
         <v>521</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>421</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>484</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>512</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>384</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>236</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>369</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>558</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>515</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>239</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>217</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>437</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>451</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>392</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>433</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>388</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>458</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>596</v>
       </c>
       <c r="B5" t="s">
         <v>409</v>
@@ -15176,73 +15829,73 @@
       <c r="D5" t="s">
         <v>522</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>492</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>473</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>593</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>489</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>570</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>385</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>494</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>568</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>240</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>218</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>438</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>452</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>393</v>
       </c>
-      <c r="Y5" t="s">
-        <v>389</v>
-      </c>
       <c r="Z5" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>459</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>410</v>
@@ -15250,1505 +15903,1513 @@
       <c r="D6" t="s">
         <v>523</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>537</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>370</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>485</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>382</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>562</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>241</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>425</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>439</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>395</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>479</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>460</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>411</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>222</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>422</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>481</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>574</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>350</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>563</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>242</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>449</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>440</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>394</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>480</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>461</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>412</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>353</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>400</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>362</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>538</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>564</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>243</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>441</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>396</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>462</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>413</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>401</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>363</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>569</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>244</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>442</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>397</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>381</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>350</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>341</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>486</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>559</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>468</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>245</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>443</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" t="s">
+        <v>598</v>
+      </c>
+      <c r="H11" t="s">
         <v>386</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>356</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>539</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>506</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>560</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>354</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>308</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>357</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>424</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>575</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>561</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F13" t="s">
         <v>375</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>297</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>358</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>475</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>94</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>360</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>555</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>351</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>359</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>505</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>95</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>510</v>
-      </c>
-      <c r="E15" t="s">
+        <v>555</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>298</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>540</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>533</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" t="s">
+        <v>510</v>
+      </c>
+      <c r="F16" t="s">
         <v>419</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>299</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>588</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>534</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
         <v>420</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>352</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>82</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>535</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>495</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>446</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>89</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>490</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>434</v>
-      </c>
-      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>330</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>455</v>
-      </c>
-      <c r="E21" t="s">
+        <v>434</v>
+      </c>
+      <c r="F21" t="s">
         <v>254</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>331</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>414</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>448</v>
-      </c>
-      <c r="E22" t="s">
+        <v>455</v>
+      </c>
+      <c r="F22" t="s">
         <v>584</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>332</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>504</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>518</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>391</v>
-      </c>
-      <c r="E23" t="s">
+        <v>448</v>
+      </c>
+      <c r="F23" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>333</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>430</v>
-      </c>
-      <c r="E24" t="s">
+        <v>391</v>
+      </c>
+      <c r="F24" t="s">
         <v>355</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>324</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>426</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>589</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>313</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>567</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>109</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
         <v>482</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>110</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
         <v>223</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>316</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>474</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>111</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
         <v>224</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>300</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>457</v>
-      </c>
-      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
         <v>502</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>317</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>457</v>
+      </c>
+      <c r="F30" t="s">
+        <v>503</v>
+      </c>
+      <c r="H30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>225</v>
       </c>
-      <c r="E30" t="s">
-        <v>503</v>
-      </c>
-      <c r="G30" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>453</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>309</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>65</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>319</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>551</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>67</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>294</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>68</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>364</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>69</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>342</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>295</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>71</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>343</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>301</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Y41" t="s">
-        <v>571</v>
+      <c r="Z41" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>586</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>323</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>334</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>335</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>377</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>376</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>336</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>373</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>402</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>337</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>390</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>365</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>302</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>326</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>327</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>587</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>328</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>338</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>347</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>371</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>344</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>345</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>403</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>404</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>379</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>348</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>303</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>572</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>349</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>444</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>339</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>445</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>296</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>552</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>378</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>314</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>320</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>325</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>463</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>366</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>304</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>315</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>321</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>310</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>573</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>305</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>322</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>306</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>307</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>340</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>346</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>329</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>374</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>311</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>312</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12054" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12616" uniqueCount="604">
   <si>
     <t>description</t>
   </si>
@@ -1875,6 +1875,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1888,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="350" x14ac:knownFonts="1">
+  <fonts count="366" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4095,8 +4101,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7481,8 +7588,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="635">
+  <borders count="667">
     <border>
       <left/>
       <right/>
@@ -10162,6 +10422,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -13936,7 +14522,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="378">
+  <cellXfs count="394">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15046,52 +15632,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="573" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="573" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="576" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="576" fontId="336" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="579" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="579" fontId="337" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="582" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="582" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="340" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="588" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="588" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="579" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="579" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="591" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="591" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="591" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="591" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="349" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="600" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="603" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="606" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="609" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="615" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="606" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="618" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="618" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16408,7 +17042,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>446</v>
+        <v>602</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -16431,7 +17065,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>446</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -16451,7 +17085,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>330</v>
@@ -16471,13 +17105,13 @@
         <v>434</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
         <v>331</v>
       </c>
       <c r="L21" t="s">
-        <v>414</v>
+        <v>603</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -16491,7 +17125,7 @@
         <v>455</v>
       </c>
       <c r="F22" t="s">
-        <v>584</v>
+        <v>254</v>
       </c>
       <c r="H22" t="s">
         <v>332</v>
@@ -16511,7 +17145,7 @@
         <v>448</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>584</v>
       </c>
       <c r="H23" t="s">
         <v>333</v>
@@ -16531,7 +17165,7 @@
         <v>391</v>
       </c>
       <c r="F24" t="s">
-        <v>355</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
         <v>324</v>
@@ -16551,7 +17185,7 @@
         <v>430</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>355</v>
       </c>
       <c r="H25" t="s">
         <v>313</v>
@@ -16571,7 +17205,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>482</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -16591,7 +17225,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>482</v>
       </c>
       <c r="H27" t="s">
         <v>316</v>
@@ -16611,7 +17245,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
         <v>300</v>
@@ -16628,7 +17262,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>502</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
         <v>317</v>
@@ -16645,7 +17279,7 @@
         <v>457</v>
       </c>
       <c r="F30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H30" t="s">
         <v>318</v>
@@ -16659,7 +17293,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -16670,7 +17304,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>64</v>
+        <v>453</v>
       </c>
       <c r="H32" t="s">
         <v>309</v>
@@ -16681,7 +17315,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>319</v>
@@ -16692,7 +17326,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>551</v>
@@ -16703,7 +17337,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>294</v>
@@ -16714,7 +17348,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>364</v>
@@ -16725,7 +17359,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>342</v>
@@ -16736,7 +17370,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>295</v>
@@ -16747,7 +17381,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>343</v>
@@ -16757,6 +17391,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
       <c r="H40" t="s">
         <v>301</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -21,15 +21,15 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12616" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13181" uniqueCount="609">
   <si>
     <t>description</t>
   </si>
@@ -1881,6 +1881,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1903,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="366" x14ac:knownFonts="1">
+  <fonts count="382" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4202,8 +4217,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7741,8 +7857,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="667">
+  <borders count="699">
     <border>
       <left/>
       <right/>
@@ -10422,6 +10691,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -14522,7 +15117,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="394">
+  <cellXfs count="410">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15680,52 +16275,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="600" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="600" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="603" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="603" fontId="352" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="606" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="606" fontId="353" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="609" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="609" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="356" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="615" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="615" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="606" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="606" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="618" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="618" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="618" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="618" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="365" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="627" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="630" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="633" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="636" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="642" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="633" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="645" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="645" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16083,7 +16726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16399,7 +17042,7 @@
         <v>384</v>
       </c>
       <c r="L4" t="s">
-        <v>236</v>
+        <v>605</v>
       </c>
       <c r="M4" t="s">
         <v>369</v>
@@ -16435,7 +17078,7 @@
         <v>433</v>
       </c>
       <c r="Z4" t="s">
-        <v>388</v>
+        <v>606</v>
       </c>
       <c r="AA4" t="s">
         <v>171</v>
@@ -16482,7 +17125,7 @@
         <v>385</v>
       </c>
       <c r="L5" t="s">
-        <v>494</v>
+        <v>236</v>
       </c>
       <c r="N5" t="s">
         <v>87</v>
@@ -16549,11 +17192,14 @@
       <c r="I6" t="s">
         <v>485</v>
       </c>
+      <c r="J6" t="s">
+        <v>604</v>
+      </c>
       <c r="K6" t="s">
         <v>382</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>494</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -16615,7 +17261,7 @@
         <v>574</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
         <v>350</v>
@@ -16674,7 +17320,7 @@
         <v>362</v>
       </c>
       <c r="L8" t="s">
-        <v>538</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -16730,7 +17376,7 @@
         <v>363</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -16774,7 +17420,7 @@
         <v>486</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -16815,7 +17461,7 @@
         <v>356</v>
       </c>
       <c r="L11" t="s">
-        <v>539</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>506</v>
@@ -16853,7 +17499,7 @@
         <v>357</v>
       </c>
       <c r="L12" t="s">
-        <v>424</v>
+        <v>539</v>
       </c>
       <c r="N12" t="s">
         <v>575</v>
@@ -16891,7 +17537,7 @@
         <v>358</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>424</v>
       </c>
       <c r="N13" t="s">
         <v>475</v>
@@ -16926,7 +17572,7 @@
         <v>359</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>505</v>
@@ -16958,7 +17604,7 @@
         <v>298</v>
       </c>
       <c r="L15" t="s">
-        <v>540</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -16990,7 +17636,7 @@
         <v>299</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>540</v>
       </c>
       <c r="N16" t="s">
         <v>588</v>
@@ -17022,7 +17668,7 @@
         <v>352</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -17042,13 +17688,13 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>602</v>
+        <v>446</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>490</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -17065,13 +17711,13 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>446</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>490</v>
       </c>
       <c r="Z19" t="s">
         <v>105</v>
@@ -17085,13 +17731,13 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>330</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
         <v>106</v>
@@ -17105,13 +17751,13 @@
         <v>434</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="H21" t="s">
         <v>331</v>
       </c>
       <c r="L21" t="s">
-        <v>603</v>
+        <v>84</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -17125,13 +17771,13 @@
         <v>455</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>584</v>
       </c>
       <c r="H22" t="s">
         <v>332</v>
       </c>
       <c r="L22" t="s">
-        <v>504</v>
+        <v>603</v>
       </c>
       <c r="Z22" t="s">
         <v>518</v>
@@ -17145,13 +17791,13 @@
         <v>448</v>
       </c>
       <c r="F23" t="s">
-        <v>584</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>333</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>504</v>
       </c>
       <c r="Z23" t="s">
         <v>108</v>
@@ -17165,13 +17811,13 @@
         <v>391</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>355</v>
       </c>
       <c r="H24" t="s">
         <v>324</v>
       </c>
       <c r="L24" t="s">
-        <v>426</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>589</v>
@@ -17185,13 +17831,13 @@
         <v>430</v>
       </c>
       <c r="F25" t="s">
-        <v>355</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>313</v>
       </c>
       <c r="L25" t="s">
-        <v>567</v>
+        <v>426</v>
       </c>
       <c r="Z25" t="s">
         <v>109</v>
@@ -17205,13 +17851,13 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>482</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>567</v>
       </c>
       <c r="Z26" t="s">
         <v>110</v>
@@ -17225,13 +17871,13 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>482</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
         <v>316</v>
       </c>
       <c r="L27" t="s">
-        <v>474</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="s">
         <v>111</v>
@@ -17245,13 +17891,13 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>300</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="Z28" t="s">
         <v>112</v>
@@ -17262,13 +17908,13 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>502</v>
       </c>
       <c r="H29" t="s">
         <v>317</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>361</v>
@@ -17279,10 +17925,13 @@
         <v>457</v>
       </c>
       <c r="F30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H30" t="s">
         <v>318</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>113</v>
@@ -17293,7 +17942,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -17304,7 +17953,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>453</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>309</v>
@@ -17315,7 +17964,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>319</v>
@@ -17326,7 +17975,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>551</v>
@@ -17337,7 +17986,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>294</v>
@@ -17348,7 +17997,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>364</v>
@@ -17359,7 +18008,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>342</v>
@@ -17370,7 +18019,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>295</v>
@@ -17381,7 +18030,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>343</v>
@@ -17391,9 +18040,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
         <v>301</v>
       </c>
@@ -17867,186 +18513,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>202</v>
+        <v>608</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>203</v>
+        <v>471</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>536</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>601</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>147</v>
+        <v>601</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>417</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>148</v>
+        <v>554</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>149</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>478</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>591</v>
+        <v>478</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>163</v>
+        <v>591</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13181" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13746" uniqueCount="609">
   <si>
     <t>description</t>
   </si>
@@ -1903,7 +1903,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="382" x14ac:knownFonts="1">
+  <fonts count="398" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4318,8 +4318,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="679">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8010,8 +8111,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="699">
+  <borders count="731">
     <border>
       <left/>
       <right/>
@@ -10691,6 +10945,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -15117,7 +15697,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="410">
+  <cellXfs count="426">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16323,52 +16903,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="627" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="627" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="630" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="630" fontId="368" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="633" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="633" fontId="369" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="636" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="636" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="372" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="642" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="642" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="633" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="633" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="645" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="645" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="645" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="645" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="381" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="654" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="657" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="660" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="663" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="669" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="660" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="672" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="672" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13746" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14312" uniqueCount="610">
   <si>
     <t>description</t>
   </si>
@@ -1896,6 +1896,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1906,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="398" x14ac:knownFonts="1">
+  <fonts count="414" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4419,8 +4422,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="679">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8264,8 +8368,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="731">
+  <borders count="763">
     <border>
       <left/>
       <right/>
@@ -10945,6 +11202,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -15697,7 +16280,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="426">
+  <cellXfs count="442">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16951,52 +17534,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="654" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="654" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="657" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="657" fontId="384" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="660" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="660" fontId="385" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="663" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="663" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="388" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="669" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="669" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="660" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="660" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="672" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="672" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="672" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="672" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="397" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="681" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="684" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="687" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="690" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="696" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="687" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="699" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="699" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17354,7 +17985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19064,7 +19695,7 @@
         <v>305</v>
       </c>
       <c r="Z89" t="s">
-        <v>198</v>
+        <v>609</v>
       </c>
     </row>
     <row r="90">
@@ -19072,7 +19703,7 @@
         <v>322</v>
       </c>
       <c r="Z90" t="s">
-        <v>487</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -19080,7 +19711,7 @@
         <v>306</v>
       </c>
       <c r="Z91" t="s">
-        <v>199</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92">
@@ -19088,7 +19719,7 @@
         <v>307</v>
       </c>
       <c r="Z92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
@@ -19096,7 +19727,7 @@
         <v>340</v>
       </c>
       <c r="Z93" t="s">
-        <v>594</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94">
@@ -19104,7 +19735,7 @@
         <v>346</v>
       </c>
       <c r="Z94" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="95">
@@ -19112,7 +19743,7 @@
         <v>329</v>
       </c>
       <c r="Z95" t="s">
-        <v>213</v>
+        <v>595</v>
       </c>
     </row>
     <row r="96">
@@ -19120,7 +19751,7 @@
         <v>374</v>
       </c>
       <c r="Z96" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97">
@@ -19128,7 +19759,7 @@
         <v>311</v>
       </c>
       <c r="Z97" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
@@ -19136,201 +19767,206 @@
         <v>312</v>
       </c>
       <c r="Z98" t="s">
-        <v>470</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>607</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>471</v>
+        <v>608</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>536</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>601</v>
+        <v>536</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>553</v>
+        <v>601</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>147</v>
+        <v>553</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>554</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>417</v>
+        <v>554</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>478</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>161</v>
+        <v>478</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>591</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14312" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14878" uniqueCount="610">
   <si>
     <t>description</t>
   </si>
@@ -1906,7 +1906,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="414" x14ac:knownFonts="1">
+  <fonts count="430" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4523,8 +4523,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="706">
+  <fills count="733">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8521,8 +8622,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="763">
+  <borders count="795">
     <border>
       <left/>
       <right/>
@@ -11202,6 +11456,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16280,7 +16860,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="442">
+  <cellXfs count="458">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17582,52 +18162,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="681" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="681" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="684" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="684" fontId="400" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="687" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="687" fontId="401" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="690" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="690" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="404" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="696" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="696" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="687" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="687" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="699" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="699" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="699" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="699" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="708" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="711" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="714" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="717" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="723" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="714" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="726" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="726" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -26,9 +26,9 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -38,23 +38,24 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14878" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15463" uniqueCount="629">
   <si>
     <t>description</t>
   </si>
@@ -1899,6 +1900,63 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1964,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="430" x14ac:knownFonts="1">
+  <fonts count="446" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4624,8 +4682,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="733">
+  <fills count="760">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8775,8 +8934,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="795">
+  <borders count="827">
     <border>
       <left/>
       <right/>
@@ -11456,6 +11768,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16860,7 +17498,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="458">
+  <cellXfs count="474">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18210,52 +18848,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="708" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="708" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="711" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="711" fontId="416" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="714" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="714" fontId="417" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="717" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="717" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="420" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="723" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="723" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="714" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="790" fillId="714" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="726" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="726" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="726" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="726" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="735" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="738" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="741" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="744" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="750" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="741" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="753" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="753" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18613,7 +19299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18701,21 +19387,24 @@
         <v>430</v>
       </c>
       <c r="Z1" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>457</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -18751,7 +19440,7 @@
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>500</v>
+        <v>613</v>
       </c>
       <c r="L2" t="s">
         <v>350</v>
@@ -18796,21 +19485,24 @@
         <v>431</v>
       </c>
       <c r="Z2" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA2" t="s">
         <v>96</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>174</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>181</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>467</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>524</v>
       </c>
     </row>
@@ -18882,21 +19574,24 @@
         <v>432</v>
       </c>
       <c r="Z3" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA3" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>175</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>398</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>182</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -18965,21 +19660,24 @@
         <v>433</v>
       </c>
       <c r="Z4" t="s">
+        <v>618</v>
+      </c>
+      <c r="AA4" t="s">
         <v>606</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>176</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>182</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>458</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -19039,21 +19737,24 @@
         <v>393</v>
       </c>
       <c r="Z5" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA5" t="s">
         <v>599</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
-        <v>177</v>
-      </c>
       <c r="AC5" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD5" t="s">
         <v>183</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>459</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -19083,7 +19784,7 @@
         <v>604</v>
       </c>
       <c r="K6" t="s">
-        <v>382</v>
+        <v>614</v>
       </c>
       <c r="L6" t="s">
         <v>494</v>
@@ -19110,21 +19811,24 @@
         <v>395</v>
       </c>
       <c r="Z6" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA6" t="s">
         <v>98</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>479</v>
       </c>
-      <c r="AB6" t="s">
-        <v>178</v>
-      </c>
       <c r="AC6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD6" t="s">
         <v>184</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>460</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -19145,7 +19849,7 @@
         <v>481</v>
       </c>
       <c r="K7" t="s">
-        <v>574</v>
+        <v>382</v>
       </c>
       <c r="L7" t="s">
         <v>72</v>
@@ -19171,22 +19875,22 @@
       <c r="X7" t="s">
         <v>394</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>480</v>
       </c>
-      <c r="AB7" t="s">
-        <v>179</v>
-      </c>
       <c r="AC7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD7" t="s">
         <v>185</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>461</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>577</v>
       </c>
     </row>
@@ -19206,6 +19910,9 @@
       <c r="I8" t="s">
         <v>362</v>
       </c>
+      <c r="K8" t="s">
+        <v>574</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -19227,22 +19934,22 @@
       <c r="X8" t="s">
         <v>396</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>100</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>173</v>
       </c>
-      <c r="AB8" t="s">
-        <v>180</v>
-      </c>
       <c r="AC8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD8" t="s">
         <v>186</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>462</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>578</v>
       </c>
     </row>
@@ -19283,13 +19990,16 @@
       <c r="X9" t="s">
         <v>397</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>207</v>
       </c>
       <c r="AC9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>579</v>
       </c>
     </row>
@@ -19304,7 +20014,7 @@
         <v>341</v>
       </c>
       <c r="I10" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -19324,13 +20034,16 @@
       <c r="U10" t="s">
         <v>443</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>255</v>
       </c>
       <c r="AC10" t="s">
+        <v>628</v>
+      </c>
+      <c r="AD10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -19345,7 +20058,7 @@
         <v>386</v>
       </c>
       <c r="I11" t="s">
-        <v>356</v>
+        <v>612</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -19362,13 +20075,13 @@
       <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -19383,7 +20096,7 @@
         <v>308</v>
       </c>
       <c r="I12" t="s">
-        <v>357</v>
+        <v>486</v>
       </c>
       <c r="L12" t="s">
         <v>539</v>
@@ -19400,13 +20113,13 @@
       <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -19421,7 +20134,7 @@
         <v>297</v>
       </c>
       <c r="I13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L13" t="s">
         <v>424</v>
@@ -19433,15 +20146,15 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z13" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA13" t="s">
         <v>360</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>508</v>
       </c>
     </row>
@@ -19456,7 +20169,7 @@
         <v>351</v>
       </c>
       <c r="I14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -19468,15 +20181,15 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z14" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>525</v>
       </c>
     </row>
@@ -19490,6 +20203,9 @@
       <c r="H15" t="s">
         <v>298</v>
       </c>
+      <c r="I15" t="s">
+        <v>358</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -19500,15 +20216,15 @@
         <v>533</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC15" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>621</v>
+      </c>
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>526</v>
       </c>
     </row>
@@ -19522,6 +20238,9 @@
       <c r="H16" t="s">
         <v>299</v>
       </c>
+      <c r="I16" t="s">
+        <v>359</v>
+      </c>
       <c r="L16" t="s">
         <v>540</v>
       </c>
@@ -19532,15 +20251,15 @@
         <v>534</v>
       </c>
       <c r="S16" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC16" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>530</v>
       </c>
     </row>
@@ -19560,13 +20279,16 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Z17" t="s">
-        <v>535</v>
-      </c>
-      <c r="AC17" t="s">
+      <c r="S17" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s">
         <v>495</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>531</v>
       </c>
     </row>
@@ -19586,10 +20308,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE18" t="s">
+      <c r="AA18" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF18" t="s">
         <v>509</v>
       </c>
     </row>
@@ -19606,10 +20328,10 @@
       <c r="L19" t="s">
         <v>490</v>
       </c>
-      <c r="Z19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE19" t="s">
+      <c r="AA19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF19" t="s">
         <v>527</v>
       </c>
     </row>
@@ -19626,10 +20348,10 @@
       <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="Z20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AA20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF20" t="s">
         <v>528</v>
       </c>
     </row>
@@ -19646,10 +20368,10 @@
       <c r="L21" t="s">
         <v>84</v>
       </c>
-      <c r="Z21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE21" t="s">
+      <c r="AA21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF21" t="s">
         <v>532</v>
       </c>
     </row>
@@ -19666,10 +20388,10 @@
       <c r="L22" t="s">
         <v>603</v>
       </c>
-      <c r="Z22" t="s">
-        <v>518</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AA22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -19686,10 +20408,10 @@
       <c r="L23" t="s">
         <v>504</v>
       </c>
-      <c r="Z23" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AA23" t="s">
+        <v>518</v>
+      </c>
+      <c r="AF23" t="s">
         <v>580</v>
       </c>
     </row>
@@ -19706,10 +20428,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
-        <v>589</v>
-      </c>
-      <c r="AE24" t="s">
+      <c r="AA24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF24" t="s">
         <v>581</v>
       </c>
     </row>
@@ -19726,16 +20448,16 @@
       <c r="L25" t="s">
         <v>426</v>
       </c>
-      <c r="Z25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AA25" t="s">
+        <v>589</v>
+      </c>
+      <c r="AF25" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>610</v>
       </c>
       <c r="F26" t="s">
         <v>482</v>
@@ -19746,16 +20468,16 @@
       <c r="L26" t="s">
         <v>567</v>
       </c>
-      <c r="Z26" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE26" t="s">
+      <c r="AA26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>223</v>
@@ -19766,16 +20488,16 @@
       <c r="L27" t="s">
         <v>85</v>
       </c>
-      <c r="Z27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AA27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
         <v>224</v>
@@ -19786,13 +20508,13 @@
       <c r="L28" t="s">
         <v>474</v>
       </c>
-      <c r="Z28" t="s">
-        <v>112</v>
+      <c r="AA28" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>502</v>
@@ -19803,13 +20525,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
-        <v>361</v>
+      <c r="AA29" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>457</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
         <v>503</v>
@@ -19820,13 +20542,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
-        <v>113</v>
+      <c r="AA30" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>457</v>
       </c>
       <c r="F31" t="s">
         <v>453</v>
@@ -19834,19 +20556,22 @@
       <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="Z31" t="s">
-        <v>114</v>
+      <c r="AA31" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>225</v>
+      </c>
       <c r="F32" t="s">
         <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>309</v>
       </c>
-      <c r="Z32" t="s">
-        <v>115</v>
+      <c r="AA32" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -19856,8 +20581,8 @@
       <c r="H33" t="s">
         <v>319</v>
       </c>
-      <c r="Z33" t="s">
-        <v>116</v>
+      <c r="AA33" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -19867,8 +20592,8 @@
       <c r="H34" t="s">
         <v>551</v>
       </c>
-      <c r="Z34" t="s">
-        <v>590</v>
+      <c r="AA34" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -19878,8 +20603,8 @@
       <c r="H35" t="s">
         <v>294</v>
       </c>
-      <c r="Z35" t="s">
-        <v>117</v>
+      <c r="AA35" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="36">
@@ -19889,8 +20614,8 @@
       <c r="H36" t="s">
         <v>364</v>
       </c>
-      <c r="Z36" t="s">
-        <v>118</v>
+      <c r="AA36" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -19900,8 +20625,8 @@
       <c r="H37" t="s">
         <v>342</v>
       </c>
-      <c r="Z37" t="s">
-        <v>208</v>
+      <c r="AA37" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -19911,8 +20636,8 @@
       <c r="H38" t="s">
         <v>295</v>
       </c>
-      <c r="Z38" t="s">
-        <v>119</v>
+      <c r="AA38" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="39">
@@ -19922,679 +20647,709 @@
       <c r="H39" t="s">
         <v>343</v>
       </c>
-      <c r="Z39" t="s">
-        <v>372</v>
+      <c r="AA39" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="H40" t="s">
         <v>301</v>
       </c>
-      <c r="Z40" t="s">
-        <v>469</v>
+      <c r="AA40" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="41">
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Z41" t="s">
-        <v>600</v>
+      <c r="AA41" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="42">
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Z42" t="s">
-        <v>427</v>
+      <c r="AA42" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="43">
       <c r="H43" t="s">
         <v>586</v>
       </c>
-      <c r="Z43" t="s">
-        <v>120</v>
+      <c r="AA43" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="44">
       <c r="H44" t="s">
         <v>323</v>
       </c>
-      <c r="Z44" t="s">
-        <v>121</v>
+      <c r="AA44" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="H45" t="s">
         <v>334</v>
       </c>
-      <c r="Z45" t="s">
-        <v>122</v>
+      <c r="AA45" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="46">
       <c r="H46" t="s">
         <v>335</v>
       </c>
-      <c r="Z46" t="s">
-        <v>123</v>
+      <c r="AA46" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="47">
       <c r="H47" t="s">
         <v>377</v>
       </c>
-      <c r="Z47" t="s">
-        <v>124</v>
+      <c r="AA47" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
         <v>376</v>
       </c>
-      <c r="Z48" t="s">
-        <v>125</v>
+      <c r="AA48" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Z49" t="s">
-        <v>476</v>
+      <c r="AA49" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
         <v>336</v>
       </c>
-      <c r="Z50" t="s">
-        <v>211</v>
+      <c r="AA50" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
         <v>373</v>
       </c>
-      <c r="Z51" t="s">
-        <v>77</v>
+      <c r="AA51" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
         <v>402</v>
       </c>
-      <c r="Z52" t="s">
-        <v>576</v>
+      <c r="AA52" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
         <v>337</v>
       </c>
-      <c r="Z53" t="s">
-        <v>126</v>
+      <c r="AA53" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
         <v>390</v>
       </c>
-      <c r="Z54" t="s">
-        <v>127</v>
+      <c r="AA54" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
         <v>365</v>
       </c>
-      <c r="Z55" t="s">
-        <v>128</v>
+      <c r="AA55" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
         <v>302</v>
       </c>
-      <c r="Z56" t="s">
-        <v>516</v>
+      <c r="AA56" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
         <v>326</v>
       </c>
-      <c r="Z57" t="s">
-        <v>499</v>
+      <c r="AA57" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
         <v>327</v>
       </c>
-      <c r="Z58" t="s">
-        <v>129</v>
+      <c r="AA58" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
         <v>587</v>
       </c>
-      <c r="Z59" t="s">
-        <v>380</v>
+      <c r="AA59" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
         <v>328</v>
       </c>
-      <c r="Z60" t="s">
-        <v>493</v>
+      <c r="AA60" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
         <v>338</v>
       </c>
-      <c r="Z61" t="s">
-        <v>130</v>
+      <c r="AA61" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
         <v>347</v>
       </c>
-      <c r="Z62" t="s">
-        <v>131</v>
+      <c r="AA62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
         <v>371</v>
       </c>
-      <c r="Z63" t="s">
-        <v>132</v>
+      <c r="AA63" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
         <v>344</v>
       </c>
-      <c r="Z64" t="s">
-        <v>133</v>
+      <c r="AA64" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
         <v>345</v>
       </c>
-      <c r="Z65" t="s">
-        <v>134</v>
+      <c r="AA65" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
         <v>403</v>
       </c>
-      <c r="Z66" t="s">
-        <v>135</v>
+      <c r="AA66" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
         <v>404</v>
       </c>
-      <c r="Z67" t="s">
-        <v>136</v>
+      <c r="AA67" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
         <v>379</v>
       </c>
-      <c r="Z68" t="s">
-        <v>472</v>
+      <c r="AA68" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
         <v>348</v>
       </c>
-      <c r="Z69" t="s">
-        <v>507</v>
+      <c r="AA69" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
         <v>303</v>
       </c>
-      <c r="Z70" t="s">
-        <v>212</v>
+      <c r="AA70" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
         <v>572</v>
       </c>
-      <c r="Z71" t="s">
-        <v>423</v>
+      <c r="AA71" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
         <v>349</v>
       </c>
-      <c r="Z72" t="s">
-        <v>477</v>
+      <c r="AA72" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
         <v>444</v>
       </c>
-      <c r="Z73" t="s">
-        <v>137</v>
+      <c r="AA73" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
         <v>339</v>
       </c>
-      <c r="Z74" t="s">
-        <v>138</v>
+      <c r="AA74" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
         <v>445</v>
       </c>
-      <c r="Z75" t="s">
-        <v>139</v>
+      <c r="AA75" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
         <v>296</v>
       </c>
-      <c r="Z76" t="s">
-        <v>140</v>
+      <c r="AA76" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
         <v>552</v>
       </c>
-      <c r="Z77" t="s">
-        <v>195</v>
+      <c r="AA77" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
         <v>378</v>
       </c>
-      <c r="Z78" t="s">
-        <v>196</v>
+      <c r="AA78" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
         <v>314</v>
       </c>
-      <c r="Z79" t="s">
-        <v>488</v>
+      <c r="AA79" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>320</v>
       </c>
-      <c r="Z80" t="s">
-        <v>501</v>
+      <c r="AA80" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>325</v>
       </c>
-      <c r="Z81" t="s">
-        <v>141</v>
+      <c r="AA81" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>463</v>
       </c>
-      <c r="Z82" t="s">
-        <v>142</v>
+      <c r="AA82" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>366</v>
       </c>
-      <c r="Z83" t="s">
-        <v>143</v>
+      <c r="AA83" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>304</v>
       </c>
-      <c r="Z84" t="s">
-        <v>529</v>
+      <c r="AA84" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>315</v>
       </c>
-      <c r="Z85" t="s">
-        <v>144</v>
+      <c r="AA85" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>321</v>
       </c>
-      <c r="Z86" t="s">
-        <v>145</v>
+      <c r="AA86" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>310</v>
       </c>
-      <c r="Z87" t="s">
-        <v>197</v>
+      <c r="AA87" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>573</v>
       </c>
-      <c r="Z88" t="s">
-        <v>517</v>
+      <c r="AA88" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>305</v>
       </c>
-      <c r="Z89" t="s">
-        <v>609</v>
+      <c r="AA89" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>322</v>
       </c>
-      <c r="Z90" t="s">
-        <v>198</v>
+      <c r="AA90" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>306</v>
       </c>
-      <c r="Z91" t="s">
-        <v>487</v>
+      <c r="AA91" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>307</v>
       </c>
-      <c r="Z92" t="s">
-        <v>199</v>
+      <c r="AA92" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>340</v>
       </c>
-      <c r="Z93" t="s">
-        <v>200</v>
+      <c r="AA93" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>346</v>
       </c>
-      <c r="Z94" t="s">
-        <v>594</v>
+      <c r="AA94" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>329</v>
       </c>
-      <c r="Z95" t="s">
-        <v>595</v>
+      <c r="AA95" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>374</v>
       </c>
-      <c r="Z96" t="s">
-        <v>213</v>
+      <c r="AA96" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>311</v>
       </c>
-      <c r="Z97" t="s">
-        <v>146</v>
+      <c r="AA97" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>312</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AA99" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Z99" t="s">
+    <row r="100">
+      <c r="AA100" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Z100" t="s">
+    <row r="101">
+      <c r="AA101" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Z101" t="s">
+    <row r="102">
+      <c r="AA102" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Z102" t="s">
+    <row r="103">
+      <c r="AA103" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Z103" t="s">
+    <row r="104">
+      <c r="AA104" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Z104" t="s">
+    <row r="105">
+      <c r="AA105" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Z105" t="s">
+    <row r="106">
+      <c r="AA106" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Z106" t="s">
+    <row r="107">
+      <c r="AA107" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Z107" t="s">
+    <row r="108">
+      <c r="AA108" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Z108" t="s">
+    <row r="109">
+      <c r="AA109" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="AA110" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Z109" t="s">
+    <row r="111">
+      <c r="AA111" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Z110" t="s">
+    <row r="112">
+      <c r="AA112" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Z111" t="s">
+    <row r="113">
+      <c r="AA113" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Z112" t="s">
+    <row r="114">
+      <c r="AA114" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Z113" t="s">
+    <row r="115">
+      <c r="AA115" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Z114" t="s">
+    <row r="116">
+      <c r="AA116" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Z115" t="s">
+    <row r="117">
+      <c r="AA117" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Z116" t="s">
+    <row r="118">
+      <c r="AA118" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Z117" t="s">
+    <row r="119">
+      <c r="AA119" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="AA120" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Z118" t="s">
+    <row r="121">
+      <c r="AA121" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Z119" t="s">
+    <row r="122">
+      <c r="AA122" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="AA123" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Z120" t="s">
+    <row r="124">
+      <c r="AA124" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Z121" t="s">
+    <row r="125">
+      <c r="AA125" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Z122" t="s">
+    <row r="126">
+      <c r="AA126" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Z123" t="s">
+    <row r="127">
+      <c r="AA127" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Z124" t="s">
+    <row r="128">
+      <c r="AA128" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Z125" t="s">
+    <row r="129">
+      <c r="AA129" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="AA130" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Z126" t="s">
+    <row r="131">
+      <c r="AA131" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Z127" t="s">
+    <row r="132">
+      <c r="AA132" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Z128" t="s">
+    <row r="133">
+      <c r="AA133" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Z129" t="s">
+    <row r="134">
+      <c r="AA134" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Z130" t="s">
+    <row r="135">
+      <c r="AA135" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Z131" t="s">
+    <row r="136">
+      <c r="AA136" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Z132" t="s">
+    <row r="137">
+      <c r="AA137" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Z133" t="s">
+    <row r="138">
+      <c r="AA138" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Z134" t="s">
+    <row r="139">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="135">
-      <c r="Z135" t="s">
+    <row r="140">
+      <c r="AA140" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="136">
-      <c r="Z136" t="s">
+    <row r="141">
+      <c r="AA141" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="AA142" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="137">
-      <c r="Z137" t="s">
+    <row r="143">
+      <c r="AA143" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="138">
-      <c r="Z138" t="s">
+    <row r="144">
+      <c r="AA144" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$42</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -39,23 +39,24 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$149</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15463" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17245" uniqueCount="652">
   <si>
     <t>description</t>
   </si>
@@ -1957,6 +1958,75 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +2034,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="446" x14ac:knownFonts="1">
+  <fonts count="494" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4783,8 +4853,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="760">
+  <fills count="841">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9087,8 +9460,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="827">
+  <borders count="923">
     <border>
       <left/>
       <right/>
@@ -11768,6 +12600,984 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -17498,7 +19308,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="474">
+  <cellXfs count="522">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18896,52 +20706,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="429" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="735" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="735" fontId="430" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="431" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="738" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="738" fontId="432" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="741" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="741" fontId="433" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="744" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="744" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="435" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="436" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="750" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="750" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="741" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="741" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="753" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="753" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="753" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="753" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="445" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="762" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="765" fontId="448" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="768" fontId="449" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="771" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="452" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="777" fontId="454" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="768" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="780" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="780" fontId="457" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="789" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="792" fontId="464" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="795" fontId="465" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="798" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="468" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="804" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="795" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="807" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="807" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="810" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="816" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="819" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="822" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="825" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="831" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="822" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="834" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="834" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19299,7 +21253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG149"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19387,7 +21341,7 @@
         <v>430</v>
       </c>
       <c r="Z1" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="AA1" t="s">
         <v>54</v>
@@ -19467,7 +21421,7 @@
         <v>251</v>
       </c>
       <c r="T2" t="s">
-        <v>215</v>
+        <v>634</v>
       </c>
       <c r="U2" t="s">
         <v>435</v>
@@ -19485,7 +21439,7 @@
         <v>431</v>
       </c>
       <c r="Z2" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="AA2" t="s">
         <v>96</v>
@@ -19559,7 +21513,7 @@
         <v>238</v>
       </c>
       <c r="T3" t="s">
-        <v>216</v>
+        <v>635</v>
       </c>
       <c r="U3" t="s">
         <v>436</v>
@@ -19574,7 +21528,7 @@
         <v>432</v>
       </c>
       <c r="Z3" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="AA3" t="s">
         <v>97</v>
@@ -19645,7 +21599,7 @@
         <v>239</v>
       </c>
       <c r="T4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U4" t="s">
         <v>437</v>
@@ -19660,7 +21614,7 @@
         <v>433</v>
       </c>
       <c r="Z4" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="AA4" t="s">
         <v>606</v>
@@ -19725,7 +21679,7 @@
         <v>240</v>
       </c>
       <c r="T5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U5" t="s">
         <v>438</v>
@@ -19735,9 +21689,6 @@
       </c>
       <c r="X5" t="s">
         <v>393</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>619</v>
       </c>
       <c r="AA5" t="s">
         <v>599</v>
@@ -19802,16 +21753,13 @@
         <v>241</v>
       </c>
       <c r="T6" t="s">
-        <v>425</v>
+        <v>217</v>
       </c>
       <c r="U6" t="s">
         <v>439</v>
       </c>
       <c r="X6" t="s">
         <v>395</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>620</v>
       </c>
       <c r="AA6" t="s">
         <v>98</v>
@@ -19867,7 +21815,7 @@
         <v>242</v>
       </c>
       <c r="T7" t="s">
-        <v>449</v>
+        <v>218</v>
       </c>
       <c r="U7" t="s">
         <v>440</v>
@@ -19928,6 +21876,9 @@
       <c r="S8" t="s">
         <v>243</v>
       </c>
+      <c r="T8" t="s">
+        <v>425</v>
+      </c>
       <c r="U8" t="s">
         <v>441</v>
       </c>
@@ -19984,6 +21935,9 @@
       <c r="S9" t="s">
         <v>244</v>
       </c>
+      <c r="T9" t="s">
+        <v>449</v>
+      </c>
       <c r="U9" t="s">
         <v>442</v>
       </c>
@@ -20105,7 +22059,7 @@
         <v>575</v>
       </c>
       <c r="O12" t="s">
-        <v>561</v>
+        <v>633</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -20142,6 +22096,9 @@
       <c r="N13" t="s">
         <v>475</v>
       </c>
+      <c r="O13" t="s">
+        <v>561</v>
+      </c>
       <c r="R13" t="s">
         <v>94</v>
       </c>
@@ -20219,7 +22176,7 @@
         <v>248</v>
       </c>
       <c r="AA15" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="AD15" t="s">
         <v>192</v>
@@ -20254,7 +22211,7 @@
         <v>249</v>
       </c>
       <c r="AA16" t="s">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="AD16" t="s">
         <v>193</v>
@@ -20283,7 +22240,7 @@
         <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AD17" t="s">
         <v>495</v>
@@ -20309,7 +22266,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>535</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s">
         <v>509</v>
@@ -20320,7 +22277,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>630</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -20329,7 +22286,7 @@
         <v>490</v>
       </c>
       <c r="AA19" t="s">
-        <v>104</v>
+        <v>535</v>
       </c>
       <c r="AF19" t="s">
         <v>527</v>
@@ -20340,7 +22297,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>631</v>
       </c>
       <c r="H20" t="s">
         <v>330</v>
@@ -20349,7 +22306,7 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF20" t="s">
         <v>528</v>
@@ -20360,7 +22317,7 @@
         <v>434</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>632</v>
       </c>
       <c r="H21" t="s">
         <v>331</v>
@@ -20369,7 +22326,7 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF21" t="s">
         <v>532</v>
@@ -20380,7 +22337,7 @@
         <v>455</v>
       </c>
       <c r="F22" t="s">
-        <v>584</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>332</v>
@@ -20389,7 +22346,7 @@
         <v>603</v>
       </c>
       <c r="AA22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF22" t="s">
         <v>233</v>
@@ -20400,7 +22357,7 @@
         <v>448</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>333</v>
@@ -20409,7 +22366,7 @@
         <v>504</v>
       </c>
       <c r="AA23" t="s">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AF23" t="s">
         <v>580</v>
@@ -20420,7 +22377,7 @@
         <v>391</v>
       </c>
       <c r="F24" t="s">
-        <v>355</v>
+        <v>254</v>
       </c>
       <c r="H24" t="s">
         <v>324</v>
@@ -20429,7 +22386,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>108</v>
+        <v>518</v>
       </c>
       <c r="AF24" t="s">
         <v>581</v>
@@ -20440,7 +22397,7 @@
         <v>430</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>584</v>
       </c>
       <c r="H25" t="s">
         <v>313</v>
@@ -20449,7 +22406,7 @@
         <v>426</v>
       </c>
       <c r="AA25" t="s">
-        <v>589</v>
+        <v>108</v>
       </c>
       <c r="AF25" t="s">
         <v>582</v>
@@ -20457,10 +22414,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="F26" t="s">
-        <v>482</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -20469,7 +22426,7 @@
         <v>567</v>
       </c>
       <c r="AA26" t="s">
-        <v>109</v>
+        <v>589</v>
       </c>
       <c r="AF26" t="s">
         <v>234</v>
@@ -20480,7 +22437,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>355</v>
       </c>
       <c r="H27" t="s">
         <v>316</v>
@@ -20489,7 +22446,7 @@
         <v>85</v>
       </c>
       <c r="AA27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s">
         <v>235</v>
@@ -20500,7 +22457,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>63</v>
       </c>
       <c r="H28" t="s">
         <v>300</v>
@@ -20509,7 +22466,7 @@
         <v>474</v>
       </c>
       <c r="AA28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -20517,7 +22474,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="H29" t="s">
         <v>317</v>
@@ -20526,7 +22483,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -20534,7 +22491,7 @@
         <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>503</v>
+        <v>223</v>
       </c>
       <c r="H30" t="s">
         <v>318</v>
@@ -20543,7 +22500,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>361</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -20551,13 +22508,13 @@
         <v>457</v>
       </c>
       <c r="F31" t="s">
-        <v>453</v>
+        <v>224</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
       </c>
       <c r="AA31" t="s">
-        <v>113</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32">
@@ -20565,114 +22522,123 @@
         <v>225</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>502</v>
       </c>
       <c r="H32" t="s">
         <v>309</v>
       </c>
       <c r="AA32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>503</v>
       </c>
       <c r="H33" t="s">
         <v>319</v>
       </c>
       <c r="AA33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>453</v>
       </c>
       <c r="H34" t="s">
         <v>551</v>
       </c>
       <c r="AA34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>294</v>
       </c>
       <c r="AA35" t="s">
-        <v>590</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>364</v>
       </c>
       <c r="AA36" t="s">
-        <v>117</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>342</v>
       </c>
       <c r="AA37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>295</v>
       </c>
       <c r="AA38" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>343</v>
       </c>
       <c r="AA39" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>301</v>
       </c>
       <c r="AA40" t="s">
-        <v>372</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
       <c r="AA41" t="s">
-        <v>469</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>71</v>
+      </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
       <c r="AA42" t="s">
-        <v>600</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43">
@@ -20680,7 +22646,7 @@
         <v>586</v>
       </c>
       <c r="AA43" t="s">
-        <v>427</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44">
@@ -20688,7 +22654,7 @@
         <v>323</v>
       </c>
       <c r="AA44" t="s">
-        <v>120</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45">
@@ -20696,7 +22662,7 @@
         <v>334</v>
       </c>
       <c r="AA45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -20704,7 +22670,7 @@
         <v>335</v>
       </c>
       <c r="AA46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
@@ -20712,7 +22678,7 @@
         <v>377</v>
       </c>
       <c r="AA47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -20720,7 +22686,7 @@
         <v>376</v>
       </c>
       <c r="AA48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -20728,7 +22694,7 @@
         <v>209</v>
       </c>
       <c r="AA49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
@@ -20736,7 +22702,7 @@
         <v>336</v>
       </c>
       <c r="AA50" t="s">
-        <v>476</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
@@ -20744,7 +22710,7 @@
         <v>373</v>
       </c>
       <c r="AA51" t="s">
-        <v>211</v>
+        <v>640</v>
       </c>
     </row>
     <row r="52">
@@ -20752,7 +22718,7 @@
         <v>402</v>
       </c>
       <c r="AA52" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53">
@@ -20760,7 +22726,7 @@
         <v>337</v>
       </c>
       <c r="AA53" t="s">
-        <v>576</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -20768,7 +22734,7 @@
         <v>390</v>
       </c>
       <c r="AA54" t="s">
-        <v>126</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55">
@@ -20776,7 +22742,7 @@
         <v>365</v>
       </c>
       <c r="AA55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -20784,7 +22750,7 @@
         <v>302</v>
       </c>
       <c r="AA56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -20792,7 +22758,7 @@
         <v>326</v>
       </c>
       <c r="AA57" t="s">
-        <v>516</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -20800,7 +22766,7 @@
         <v>327</v>
       </c>
       <c r="AA58" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59">
@@ -20808,7 +22774,7 @@
         <v>587</v>
       </c>
       <c r="AA59" t="s">
-        <v>129</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60">
@@ -20816,7 +22782,7 @@
         <v>328</v>
       </c>
       <c r="AA60" t="s">
-        <v>380</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -20824,7 +22790,7 @@
         <v>338</v>
       </c>
       <c r="AA61" t="s">
-        <v>493</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62">
@@ -20832,7 +22798,7 @@
         <v>347</v>
       </c>
       <c r="AA62" t="s">
-        <v>130</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63">
@@ -20840,7 +22806,7 @@
         <v>371</v>
       </c>
       <c r="AA63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -20848,7 +22814,7 @@
         <v>344</v>
       </c>
       <c r="AA64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -20856,7 +22822,7 @@
         <v>345</v>
       </c>
       <c r="AA65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -20864,7 +22830,7 @@
         <v>403</v>
       </c>
       <c r="AA66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -20872,7 +22838,7 @@
         <v>404</v>
       </c>
       <c r="AA67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -20880,7 +22846,7 @@
         <v>379</v>
       </c>
       <c r="AA68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
@@ -20888,7 +22854,7 @@
         <v>348</v>
       </c>
       <c r="AA69" t="s">
-        <v>472</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
@@ -20896,7 +22862,7 @@
         <v>303</v>
       </c>
       <c r="AA70" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71">
@@ -20904,7 +22870,7 @@
         <v>572</v>
       </c>
       <c r="AA71" t="s">
-        <v>212</v>
+        <v>507</v>
       </c>
     </row>
     <row r="72">
@@ -20912,7 +22878,7 @@
         <v>349</v>
       </c>
       <c r="AA72" t="s">
-        <v>423</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73">
@@ -20920,7 +22886,7 @@
         <v>444</v>
       </c>
       <c r="AA73" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74">
@@ -20928,7 +22894,7 @@
         <v>339</v>
       </c>
       <c r="AA74" t="s">
-        <v>137</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75">
@@ -20936,7 +22902,7 @@
         <v>445</v>
       </c>
       <c r="AA75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -20944,7 +22910,7 @@
         <v>296</v>
       </c>
       <c r="AA76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -20952,7 +22918,7 @@
         <v>552</v>
       </c>
       <c r="AA77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -20960,7 +22926,7 @@
         <v>378</v>
       </c>
       <c r="AA78" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
@@ -20968,7 +22934,7 @@
         <v>314</v>
       </c>
       <c r="AA79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -20976,7 +22942,7 @@
         <v>320</v>
       </c>
       <c r="AA80" t="s">
-        <v>488</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81">
@@ -20984,7 +22950,7 @@
         <v>325</v>
       </c>
       <c r="AA81" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82">
@@ -20992,7 +22958,7 @@
         <v>463</v>
       </c>
       <c r="AA82" t="s">
-        <v>141</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83">
@@ -21000,7 +22966,7 @@
         <v>366</v>
       </c>
       <c r="AA83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
@@ -21008,7 +22974,7 @@
         <v>304</v>
       </c>
       <c r="AA84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85">
@@ -21016,7 +22982,7 @@
         <v>315</v>
       </c>
       <c r="AA85" t="s">
-        <v>529</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
@@ -21024,7 +22990,7 @@
         <v>321</v>
       </c>
       <c r="AA86" t="s">
-        <v>144</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87">
@@ -21032,7 +22998,7 @@
         <v>310</v>
       </c>
       <c r="AA87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
@@ -21040,7 +23006,7 @@
         <v>573</v>
       </c>
       <c r="AA88" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89">
@@ -21048,7 +23014,7 @@
         <v>305</v>
       </c>
       <c r="AA89" t="s">
-        <v>517</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -21056,7 +23022,7 @@
         <v>322</v>
       </c>
       <c r="AA90" t="s">
-        <v>609</v>
+        <v>517</v>
       </c>
     </row>
     <row r="91">
@@ -21064,7 +23030,7 @@
         <v>306</v>
       </c>
       <c r="AA91" t="s">
-        <v>198</v>
+        <v>609</v>
       </c>
     </row>
     <row r="92">
@@ -21072,7 +23038,7 @@
         <v>307</v>
       </c>
       <c r="AA92" t="s">
-        <v>487</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
@@ -21080,7 +23046,7 @@
         <v>340</v>
       </c>
       <c r="AA93" t="s">
-        <v>199</v>
+        <v>487</v>
       </c>
     </row>
     <row r="94">
@@ -21088,7 +23054,7 @@
         <v>346</v>
       </c>
       <c r="AA94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
@@ -21096,7 +23062,7 @@
         <v>329</v>
       </c>
       <c r="AA95" t="s">
-        <v>594</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96">
@@ -21104,7 +23070,7 @@
         <v>374</v>
       </c>
       <c r="AA96" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="97">
@@ -21112,7 +23078,7 @@
         <v>311</v>
       </c>
       <c r="AA97" t="s">
-        <v>213</v>
+        <v>595</v>
       </c>
     </row>
     <row r="98">
@@ -21120,237 +23086,262 @@
         <v>312</v>
       </c>
       <c r="AA98" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>470</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>607</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>471</v>
+        <v>608</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>202</v>
+        <v>471</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>622</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>206</v>
+        <v>622</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>536</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>601</v>
+        <v>536</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>553</v>
+        <v>601</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>147</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>554</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>417</v>
+        <v>554</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>148</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>623</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>150</v>
+        <v>623</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>624</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>152</v>
+        <v>624</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>625</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>158</v>
+        <v>625</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>478</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>161</v>
+        <v>641</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>591</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>162</v>
+        <v>591</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>166</v>
+        <v>626</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="AA146" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="AA147" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AA148" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AA149" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$42</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
@@ -38,24 +38,24 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$149</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17245" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18523" uniqueCount="694">
   <si>
     <t>description</t>
   </si>
@@ -2027,6 +2027,132 @@
   </si>
   <si>
     <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2160,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="494" x14ac:knownFonts="1">
+  <fonts count="528" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5156,8 +5282,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="841">
+  <fills count="889">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9917,6 +10257,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -19308,7 +19920,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="522">
+  <cellXfs count="556">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20850,52 +21462,154 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="816" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="816" fontId="478" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="819" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="902" fillId="819" fontId="480" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="822" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="822" fontId="481" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="825" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="825" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="484" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="831" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="831" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="822" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="822" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="834" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="834" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="834" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="834" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="837" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="493" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="843" fontId="494" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="846" fontId="496" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="849" fontId="497" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="499" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="500" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="501" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="858" fontId="502" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="861" fontId="503" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="849" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="505" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="506" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="864" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="509" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="861" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="870" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="873" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="876" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="885" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="873" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="876" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="888" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="876" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="885" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21253,7 +21967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG149"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21344,21 +22058,24 @@
         <v>629</v>
       </c>
       <c r="AA1" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>457</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -21442,21 +22159,24 @@
         <v>636</v>
       </c>
       <c r="AA2" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>467</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>524</v>
       </c>
     </row>
@@ -21531,21 +22251,24 @@
         <v>637</v>
       </c>
       <c r="AA3" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>398</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>182</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -21617,21 +22340,24 @@
         <v>638</v>
       </c>
       <c r="AA4" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB4" t="s">
         <v>606</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>176</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>458</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -21691,21 +22417,24 @@
         <v>393</v>
       </c>
       <c r="AA5" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB5" t="s">
         <v>599</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>172</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>627</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>459</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -21762,21 +22491,24 @@
         <v>395</v>
       </c>
       <c r="AA6" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>479</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>184</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>460</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -21824,21 +22556,24 @@
         <v>394</v>
       </c>
       <c r="AA7" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>480</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>461</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>577</v>
       </c>
     </row>
@@ -21886,21 +22621,24 @@
         <v>396</v>
       </c>
       <c r="AA8" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>462</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>578</v>
       </c>
     </row>
@@ -21945,15 +22683,18 @@
         <v>397</v>
       </c>
       <c r="AA9" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>579</v>
       </c>
     </row>
@@ -21989,15 +22730,18 @@
         <v>443</v>
       </c>
       <c r="AA10" t="s">
+        <v>664</v>
+      </c>
+      <c r="AB10" t="s">
         <v>255</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>628</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -22027,15 +22771,18 @@
         <v>93</v>
       </c>
       <c r="S11" t="s">
-        <v>246</v>
+        <v>655</v>
       </c>
       <c r="AA11" t="s">
+        <v>665</v>
+      </c>
+      <c r="AB11" t="s">
         <v>256</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>257</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -22065,15 +22812,18 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA12" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>189</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -22103,15 +22853,18 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>615</v>
+        <v>247</v>
       </c>
       <c r="AA13" t="s">
+        <v>667</v>
+      </c>
+      <c r="AB13" t="s">
         <v>360</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>508</v>
       </c>
     </row>
@@ -22138,15 +22891,18 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>252</v>
+        <v>615</v>
       </c>
       <c r="AA14" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>191</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>525</v>
       </c>
     </row>
@@ -22173,15 +22929,18 @@
         <v>533</v>
       </c>
       <c r="S15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA15" t="s">
+        <v>669</v>
+      </c>
+      <c r="AB15" t="s">
         <v>639</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>192</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>526</v>
       </c>
     </row>
@@ -22208,15 +22967,18 @@
         <v>534</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA16" t="s">
+        <v>670</v>
+      </c>
+      <c r="AB16" t="s">
         <v>621</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>530</v>
       </c>
     </row>
@@ -22237,15 +22999,18 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA17" t="s">
+        <v>671</v>
+      </c>
+      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>495</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>531</v>
       </c>
     </row>
@@ -22265,10 +23030,16 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>250</v>
+      </c>
       <c r="AA18" t="s">
+        <v>672</v>
+      </c>
+      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>509</v>
       </c>
     </row>
@@ -22286,9 +23057,12 @@
         <v>490</v>
       </c>
       <c r="AA19" t="s">
+        <v>673</v>
+      </c>
+      <c r="AB19" t="s">
         <v>535</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>527</v>
       </c>
     </row>
@@ -22306,9 +23080,12 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>528</v>
       </c>
     </row>
@@ -22326,9 +23103,12 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
+        <v>675</v>
+      </c>
+      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>532</v>
       </c>
     </row>
@@ -22346,9 +23126,12 @@
         <v>603</v>
       </c>
       <c r="AA22" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -22366,9 +23149,12 @@
         <v>504</v>
       </c>
       <c r="AA23" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>580</v>
       </c>
     </row>
@@ -22386,9 +23172,12 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB24" t="s">
         <v>518</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>581</v>
       </c>
     </row>
@@ -22397,7 +23186,7 @@
         <v>430</v>
       </c>
       <c r="F25" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="H25" t="s">
         <v>313</v>
@@ -22406,9 +23195,12 @@
         <v>426</v>
       </c>
       <c r="AA25" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>582</v>
       </c>
     </row>
@@ -22417,243 +23209,294 @@
         <v>629</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>584</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>567</v>
+        <v>654</v>
       </c>
       <c r="AA26" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB26" t="s">
         <v>589</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>610</v>
       </c>
       <c r="F27" t="s">
-        <v>355</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
         <v>316</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>567</v>
       </c>
       <c r="AA27" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>355</v>
       </c>
       <c r="H28" t="s">
         <v>300</v>
       </c>
       <c r="L28" t="s">
-        <v>474</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>482</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>317</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="AA29" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>482</v>
       </c>
       <c r="H30" t="s">
         <v>318</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>682</v>
+      </c>
+      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>457</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB31" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>457</v>
       </c>
       <c r="F32" t="s">
-        <v>502</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
         <v>309</v>
       </c>
       <c r="AA32" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
       <c r="F33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H33" t="s">
         <v>319</v>
       </c>
       <c r="AA33" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="H34" t="s">
         <v>551</v>
       </c>
       <c r="AA34" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>453</v>
       </c>
       <c r="H35" t="s">
         <v>294</v>
       </c>
       <c r="AA35" t="s">
+        <v>687</v>
+      </c>
+      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
         <v>364</v>
       </c>
       <c r="AA36" t="s">
+        <v>688</v>
+      </c>
+      <c r="AB36" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
         <v>342</v>
       </c>
       <c r="AA37" t="s">
+        <v>689</v>
+      </c>
+      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
         <v>295</v>
       </c>
       <c r="AA38" t="s">
+        <v>690</v>
+      </c>
+      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>343</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
         <v>301</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
       <c r="H43" t="s">
         <v>586</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>653</v>
+      </c>
       <c r="H44" t="s">
         <v>323</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>427</v>
       </c>
     </row>
@@ -22661,7 +23504,7 @@
       <c r="H45" t="s">
         <v>334</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -22669,7 +23512,7 @@
       <c r="H46" t="s">
         <v>335</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -22677,7 +23520,7 @@
       <c r="H47" t="s">
         <v>377</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>122</v>
       </c>
     </row>
@@ -22685,7 +23528,7 @@
       <c r="H48" t="s">
         <v>376</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22693,7 +23536,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -22701,7 +23544,7 @@
       <c r="H50" t="s">
         <v>336</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -22709,7 +23552,7 @@
       <c r="H51" t="s">
         <v>373</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>640</v>
       </c>
     </row>
@@ -22717,7 +23560,7 @@
       <c r="H52" t="s">
         <v>402</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>211</v>
       </c>
     </row>
@@ -22725,7 +23568,7 @@
       <c r="H53" t="s">
         <v>337</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -22733,7 +23576,7 @@
       <c r="H54" t="s">
         <v>390</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>576</v>
       </c>
     </row>
@@ -22741,7 +23584,7 @@
       <c r="H55" t="s">
         <v>365</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -22749,7 +23592,7 @@
       <c r="H56" t="s">
         <v>302</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -22757,7 +23600,7 @@
       <c r="H57" t="s">
         <v>326</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>128</v>
       </c>
     </row>
@@ -22765,7 +23608,7 @@
       <c r="H58" t="s">
         <v>327</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>516</v>
       </c>
     </row>
@@ -22773,7 +23616,7 @@
       <c r="H59" t="s">
         <v>587</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>499</v>
       </c>
     </row>
@@ -22781,7 +23624,7 @@
       <c r="H60" t="s">
         <v>328</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -22789,7 +23632,7 @@
       <c r="H61" t="s">
         <v>338</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>380</v>
       </c>
     </row>
@@ -22797,7 +23640,7 @@
       <c r="H62" t="s">
         <v>347</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>493</v>
       </c>
     </row>
@@ -22805,7 +23648,7 @@
       <c r="H63" t="s">
         <v>371</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -22813,7 +23656,7 @@
       <c r="H64" t="s">
         <v>344</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>131</v>
       </c>
     </row>
@@ -22821,7 +23664,7 @@
       <c r="H65" t="s">
         <v>345</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -22829,7 +23672,7 @@
       <c r="H66" t="s">
         <v>403</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>133</v>
       </c>
     </row>
@@ -22837,7 +23680,7 @@
       <c r="H67" t="s">
         <v>404</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -22845,7 +23688,7 @@
       <c r="H68" t="s">
         <v>379</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -22853,7 +23696,7 @@
       <c r="H69" t="s">
         <v>348</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22861,7 +23704,7 @@
       <c r="H70" t="s">
         <v>303</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>472</v>
       </c>
     </row>
@@ -22869,7 +23712,7 @@
       <c r="H71" t="s">
         <v>572</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>507</v>
       </c>
     </row>
@@ -22877,7 +23720,7 @@
       <c r="H72" t="s">
         <v>349</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>212</v>
       </c>
     </row>
@@ -22885,7 +23728,7 @@
       <c r="H73" t="s">
         <v>444</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>423</v>
       </c>
     </row>
@@ -22893,7 +23736,7 @@
       <c r="H74" t="s">
         <v>339</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>477</v>
       </c>
     </row>
@@ -22901,7 +23744,7 @@
       <c r="H75" t="s">
         <v>445</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -22909,7 +23752,7 @@
       <c r="H76" t="s">
         <v>296</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>138</v>
       </c>
     </row>
@@ -22917,7 +23760,7 @@
       <c r="H77" t="s">
         <v>552</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -22925,7 +23768,7 @@
       <c r="H78" t="s">
         <v>378</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -22933,414 +23776,424 @@
       <c r="H79" t="s">
         <v>314</v>
       </c>
-      <c r="AA79" t="s">
-        <v>195</v>
+      <c r="AB79" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>320</v>
       </c>
-      <c r="AA80" t="s">
-        <v>196</v>
+      <c r="AB80" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>325</v>
       </c>
-      <c r="AA81" t="s">
-        <v>488</v>
+      <c r="AB81" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>463</v>
       </c>
-      <c r="AA82" t="s">
-        <v>501</v>
+      <c r="AB82" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>366</v>
       </c>
-      <c r="AA83" t="s">
-        <v>141</v>
+      <c r="AB83" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>304</v>
       </c>
-      <c r="AA84" t="s">
-        <v>142</v>
+      <c r="AB84" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>315</v>
       </c>
-      <c r="AA85" t="s">
-        <v>143</v>
+      <c r="AB85" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>321</v>
       </c>
-      <c r="AA86" t="s">
-        <v>529</v>
+      <c r="AB86" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>310</v>
       </c>
-      <c r="AA87" t="s">
-        <v>144</v>
+      <c r="AB87" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>573</v>
       </c>
-      <c r="AA88" t="s">
-        <v>145</v>
+      <c r="AB88" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>305</v>
       </c>
-      <c r="AA89" t="s">
-        <v>197</v>
+      <c r="AB89" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>322</v>
       </c>
-      <c r="AA90" t="s">
-        <v>517</v>
+      <c r="AB90" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>306</v>
       </c>
-      <c r="AA91" t="s">
-        <v>609</v>
+      <c r="AB91" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>307</v>
       </c>
-      <c r="AA92" t="s">
-        <v>198</v>
+      <c r="AB92" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>340</v>
       </c>
-      <c r="AA93" t="s">
-        <v>487</v>
+      <c r="AB93" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>346</v>
       </c>
-      <c r="AA94" t="s">
-        <v>199</v>
+      <c r="AB94" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>329</v>
       </c>
-      <c r="AA95" t="s">
-        <v>200</v>
+      <c r="AB95" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>374</v>
       </c>
-      <c r="AA96" t="s">
-        <v>594</v>
+      <c r="AB96" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>311</v>
       </c>
-      <c r="AA97" t="s">
-        <v>595</v>
+      <c r="AB97" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>312</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="99">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="102">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="103">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="104">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="105">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="108">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="109">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="110">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="111">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
-        <v>601</v>
-      </c>
-    </row>
     <row r="114">
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="144">
+      <c r="AB144" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="148">
+      <c r="AB148" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="149">
+      <c r="AB149" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="150">
+      <c r="AB150" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="151">
+      <c r="AB151" t="s">
         <v>650</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -21,13 +21,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -45,13 +45,13 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18523" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19125" uniqueCount="696">
   <si>
     <t>description</t>
   </si>
@@ -2153,6 +2153,12 @@
   </si>
   <si>
     <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2166,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="528" x14ac:knownFonts="1">
+  <fonts count="545" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5496,8 +5502,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="889">
+  <fills count="913">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10257,6 +10370,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -19920,7 +20169,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="556">
+  <cellXfs count="573">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21561,55 +21810,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="861" fontId="510" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="870" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="870" fontId="513" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="873" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="873" fontId="514" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="876" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="876" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="516" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="517" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="518" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="885" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="885" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="873" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="873" fontId="521" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="522" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="876" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="876" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="888" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="888" fontId="525" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="876" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="876" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="885" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="885" fontId="527" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="891" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="903" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21967,7 +22267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22058,24 +22358,21 @@
         <v>629</v>
       </c>
       <c r="AA1" t="s">
-        <v>610</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" t="s">
-        <v>57</v>
+        <v>457</v>
       </c>
       <c r="AF1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AG1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -22108,7 +22405,7 @@
         <v>483</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>695</v>
       </c>
       <c r="K2" t="s">
         <v>613</v>
@@ -22159,24 +22456,21 @@
         <v>636</v>
       </c>
       <c r="AA2" t="s">
-        <v>656</v>
+        <v>96</v>
       </c>
       <c r="AB2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AC2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AE2" t="s">
-        <v>181</v>
+        <v>467</v>
       </c>
       <c r="AF2" t="s">
-        <v>467</v>
-      </c>
-      <c r="AG2" t="s">
         <v>524</v>
       </c>
     </row>
@@ -22206,7 +22500,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
         <v>383</v>
@@ -22251,24 +22545,21 @@
         <v>637</v>
       </c>
       <c r="AA3" t="s">
-        <v>657</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AC3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="s">
-        <v>175</v>
+        <v>398</v>
       </c>
       <c r="AE3" t="s">
-        <v>398</v>
+        <v>182</v>
       </c>
       <c r="AF3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -22295,7 +22586,7 @@
         <v>484</v>
       </c>
       <c r="J4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K4" t="s">
         <v>384</v>
@@ -22340,24 +22631,21 @@
         <v>638</v>
       </c>
       <c r="AA4" t="s">
-        <v>658</v>
+        <v>606</v>
       </c>
       <c r="AB4" t="s">
-        <v>606</v>
+        <v>171</v>
       </c>
       <c r="AC4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AD4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AE4" t="s">
-        <v>182</v>
+        <v>458</v>
       </c>
       <c r="AF4" t="s">
-        <v>458</v>
-      </c>
-      <c r="AG4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -22384,7 +22672,7 @@
         <v>489</v>
       </c>
       <c r="J5" t="s">
-        <v>570</v>
+        <v>512</v>
       </c>
       <c r="K5" t="s">
         <v>385</v>
@@ -22417,24 +22705,21 @@
         <v>393</v>
       </c>
       <c r="AA5" t="s">
-        <v>659</v>
+        <v>599</v>
       </c>
       <c r="AB5" t="s">
-        <v>599</v>
+        <v>172</v>
       </c>
       <c r="AC5" t="s">
-        <v>172</v>
+        <v>627</v>
       </c>
       <c r="AD5" t="s">
-        <v>627</v>
+        <v>183</v>
       </c>
       <c r="AE5" t="s">
-        <v>183</v>
+        <v>459</v>
       </c>
       <c r="AF5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AG5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -22461,7 +22746,7 @@
         <v>485</v>
       </c>
       <c r="J6" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="K6" t="s">
         <v>614</v>
@@ -22491,24 +22776,21 @@
         <v>395</v>
       </c>
       <c r="AA6" t="s">
-        <v>660</v>
+        <v>98</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>479</v>
       </c>
       <c r="AC6" t="s">
-        <v>479</v>
+        <v>177</v>
       </c>
       <c r="AD6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE6" t="s">
-        <v>184</v>
+        <v>460</v>
       </c>
       <c r="AF6" t="s">
-        <v>460</v>
-      </c>
-      <c r="AG6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -22528,6 +22810,9 @@
       <c r="I7" t="s">
         <v>481</v>
       </c>
+      <c r="J7" t="s">
+        <v>604</v>
+      </c>
       <c r="K7" t="s">
         <v>382</v>
       </c>
@@ -22556,24 +22841,21 @@
         <v>394</v>
       </c>
       <c r="AA7" t="s">
-        <v>661</v>
+        <v>99</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>480</v>
       </c>
       <c r="AC7" t="s">
-        <v>480</v>
+        <v>178</v>
       </c>
       <c r="AD7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AE7" t="s">
-        <v>185</v>
+        <v>461</v>
       </c>
       <c r="AF7" t="s">
-        <v>461</v>
-      </c>
-      <c r="AG7" t="s">
         <v>577</v>
       </c>
     </row>
@@ -22621,24 +22903,21 @@
         <v>396</v>
       </c>
       <c r="AA8" t="s">
-        <v>662</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AC8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AD8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AE8" t="s">
-        <v>186</v>
+        <v>462</v>
       </c>
       <c r="AF8" t="s">
-        <v>462</v>
-      </c>
-      <c r="AG8" t="s">
         <v>578</v>
       </c>
     </row>
@@ -22683,18 +22962,15 @@
         <v>397</v>
       </c>
       <c r="AA9" t="s">
-        <v>663</v>
-      </c>
-      <c r="AB9" t="s">
         <v>207</v>
       </c>
+      <c r="AC9" t="s">
+        <v>180</v>
+      </c>
       <c r="AD9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>579</v>
       </c>
     </row>
@@ -22730,18 +23006,15 @@
         <v>443</v>
       </c>
       <c r="AA10" t="s">
-        <v>664</v>
-      </c>
-      <c r="AB10" t="s">
         <v>255</v>
       </c>
+      <c r="AC10" t="s">
+        <v>628</v>
+      </c>
       <c r="AD10" t="s">
-        <v>628</v>
-      </c>
-      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -22750,7 +23023,7 @@
         <v>381</v>
       </c>
       <c r="F11" t="s">
-        <v>598</v>
+        <v>694</v>
       </c>
       <c r="H11" t="s">
         <v>386</v>
@@ -22774,15 +23047,12 @@
         <v>655</v>
       </c>
       <c r="AA11" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB11" t="s">
         <v>256</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>257</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -22791,7 +23061,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>354</v>
+        <v>598</v>
       </c>
       <c r="H12" t="s">
         <v>308</v>
@@ -22815,15 +23085,12 @@
         <v>246</v>
       </c>
       <c r="AA12" t="s">
-        <v>666</v>
-      </c>
-      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -22832,7 +23099,7 @@
         <v>367</v>
       </c>
       <c r="F13" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="H13" t="s">
         <v>297</v>
@@ -22856,15 +23123,12 @@
         <v>247</v>
       </c>
       <c r="AA13" t="s">
-        <v>667</v>
-      </c>
-      <c r="AB13" t="s">
         <v>360</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>508</v>
       </c>
     </row>
@@ -22873,7 +23137,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>375</v>
       </c>
       <c r="H14" t="s">
         <v>351</v>
@@ -22894,15 +23158,12 @@
         <v>615</v>
       </c>
       <c r="AA14" t="s">
-        <v>668</v>
-      </c>
-      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>525</v>
       </c>
     </row>
@@ -22911,7 +23172,7 @@
         <v>555</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>298</v>
@@ -22932,15 +23193,12 @@
         <v>252</v>
       </c>
       <c r="AA15" t="s">
-        <v>669</v>
-      </c>
-      <c r="AB15" t="s">
         <v>639</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>526</v>
       </c>
     </row>
@@ -22949,7 +23207,7 @@
         <v>510</v>
       </c>
       <c r="F16" t="s">
-        <v>419</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>299</v>
@@ -22970,15 +23228,12 @@
         <v>248</v>
       </c>
       <c r="AA16" t="s">
-        <v>670</v>
-      </c>
-      <c r="AB16" t="s">
         <v>621</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>530</v>
       </c>
     </row>
@@ -22987,7 +23242,7 @@
         <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H17" t="s">
         <v>352</v>
@@ -23002,15 +23257,12 @@
         <v>249</v>
       </c>
       <c r="AA17" t="s">
-        <v>671</v>
-      </c>
-      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>495</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>531</v>
       </c>
     </row>
@@ -23019,7 +23271,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -23034,12 +23286,9 @@
         <v>250</v>
       </c>
       <c r="AA18" t="s">
-        <v>672</v>
-      </c>
-      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>509</v>
       </c>
     </row>
@@ -23048,7 +23297,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>630</v>
+        <v>446</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -23057,12 +23306,9 @@
         <v>490</v>
       </c>
       <c r="AA19" t="s">
-        <v>673</v>
-      </c>
-      <c r="AB19" t="s">
         <v>535</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>527</v>
       </c>
     </row>
@@ -23071,7 +23317,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H20" t="s">
         <v>330</v>
@@ -23080,12 +23326,9 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>528</v>
       </c>
     </row>
@@ -23094,7 +23337,7 @@
         <v>434</v>
       </c>
       <c r="F21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H21" t="s">
         <v>331</v>
@@ -23103,12 +23346,9 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>675</v>
-      </c>
-      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>532</v>
       </c>
     </row>
@@ -23117,7 +23357,7 @@
         <v>455</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>632</v>
       </c>
       <c r="H22" t="s">
         <v>332</v>
@@ -23126,12 +23366,9 @@
         <v>603</v>
       </c>
       <c r="AA22" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -23140,7 +23377,7 @@
         <v>448</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>333</v>
@@ -23149,12 +23386,9 @@
         <v>504</v>
       </c>
       <c r="AA23" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>580</v>
       </c>
     </row>
@@ -23163,7 +23397,7 @@
         <v>391</v>
       </c>
       <c r="F24" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>324</v>
@@ -23172,12 +23406,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>677</v>
-      </c>
-      <c r="AB24" t="s">
         <v>518</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>581</v>
       </c>
     </row>
@@ -23186,7 +23417,7 @@
         <v>430</v>
       </c>
       <c r="F25" t="s">
-        <v>652</v>
+        <v>254</v>
       </c>
       <c r="H25" t="s">
         <v>313</v>
@@ -23195,12 +23426,9 @@
         <v>426</v>
       </c>
       <c r="AA25" t="s">
-        <v>678</v>
-      </c>
-      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>582</v>
       </c>
     </row>
@@ -23209,7 +23437,7 @@
         <v>629</v>
       </c>
       <c r="F26" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -23218,21 +23446,18 @@
         <v>654</v>
       </c>
       <c r="AA26" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB26" t="s">
         <v>589</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>610</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>584</v>
       </c>
       <c r="H27" t="s">
         <v>316</v>
@@ -23241,21 +23466,18 @@
         <v>567</v>
       </c>
       <c r="AA27" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>355</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
         <v>300</v>
@@ -23264,18 +23486,15 @@
         <v>85</v>
       </c>
       <c r="AA28" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>355</v>
       </c>
       <c r="H29" t="s">
         <v>317</v>
@@ -23284,18 +23503,15 @@
         <v>474</v>
       </c>
       <c r="AA29" t="s">
-        <v>681</v>
-      </c>
-      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>482</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
         <v>318</v>
@@ -23304,18 +23520,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>682</v>
-      </c>
-      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>457</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>482</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -23324,187 +23537,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>683</v>
-      </c>
-      <c r="AB31" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>457</v>
+        <v>225</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
         <v>309</v>
       </c>
       <c r="AA32" t="s">
-        <v>684</v>
-      </c>
-      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>225</v>
-      </c>
       <c r="F33" t="s">
-        <v>502</v>
+        <v>224</v>
       </c>
       <c r="H33" t="s">
         <v>319</v>
       </c>
       <c r="AA33" t="s">
-        <v>685</v>
-      </c>
-      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H34" t="s">
         <v>551</v>
       </c>
       <c r="AA34" t="s">
-        <v>686</v>
-      </c>
-      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="H35" t="s">
         <v>294</v>
       </c>
       <c r="AA35" t="s">
-        <v>687</v>
-      </c>
-      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>64</v>
+        <v>453</v>
       </c>
       <c r="H36" t="s">
         <v>364</v>
       </c>
       <c r="AA36" t="s">
-        <v>688</v>
-      </c>
-      <c r="AB36" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>342</v>
       </c>
       <c r="AA37" t="s">
-        <v>689</v>
-      </c>
-      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
         <v>295</v>
       </c>
       <c r="AA38" t="s">
-        <v>690</v>
-      </c>
-      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
         <v>343</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>301</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
         <v>586</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>653</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
         <v>323</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>653</v>
+      </c>
       <c r="H45" t="s">
         <v>334</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -23512,7 +23701,7 @@
       <c r="H46" t="s">
         <v>335</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -23520,7 +23709,7 @@
       <c r="H47" t="s">
         <v>377</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>122</v>
       </c>
     </row>
@@ -23528,7 +23717,7 @@
       <c r="H48" t="s">
         <v>376</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -23536,7 +23725,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -23544,7 +23733,7 @@
       <c r="H50" t="s">
         <v>336</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -23552,7 +23741,7 @@
       <c r="H51" t="s">
         <v>373</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>640</v>
       </c>
     </row>
@@ -23560,7 +23749,7 @@
       <c r="H52" t="s">
         <v>402</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>211</v>
       </c>
     </row>
@@ -23568,7 +23757,7 @@
       <c r="H53" t="s">
         <v>337</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -23576,7 +23765,7 @@
       <c r="H54" t="s">
         <v>390</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>576</v>
       </c>
     </row>
@@ -23584,7 +23773,7 @@
       <c r="H55" t="s">
         <v>365</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -23592,7 +23781,7 @@
       <c r="H56" t="s">
         <v>302</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -23600,7 +23789,7 @@
       <c r="H57" t="s">
         <v>326</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>128</v>
       </c>
     </row>
@@ -23608,7 +23797,7 @@
       <c r="H58" t="s">
         <v>327</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>516</v>
       </c>
     </row>
@@ -23616,7 +23805,7 @@
       <c r="H59" t="s">
         <v>587</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>499</v>
       </c>
     </row>
@@ -23624,7 +23813,7 @@
       <c r="H60" t="s">
         <v>328</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -23632,7 +23821,7 @@
       <c r="H61" t="s">
         <v>338</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>380</v>
       </c>
     </row>
@@ -23640,7 +23829,7 @@
       <c r="H62" t="s">
         <v>347</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>493</v>
       </c>
     </row>
@@ -23648,7 +23837,7 @@
       <c r="H63" t="s">
         <v>371</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -23656,7 +23845,7 @@
       <c r="H64" t="s">
         <v>344</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>131</v>
       </c>
     </row>
@@ -23664,7 +23853,7 @@
       <c r="H65" t="s">
         <v>345</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -23672,7 +23861,7 @@
       <c r="H66" t="s">
         <v>403</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>133</v>
       </c>
     </row>
@@ -23680,7 +23869,7 @@
       <c r="H67" t="s">
         <v>404</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -23688,7 +23877,7 @@
       <c r="H68" t="s">
         <v>379</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -23696,7 +23885,7 @@
       <c r="H69" t="s">
         <v>348</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23704,7 +23893,7 @@
       <c r="H70" t="s">
         <v>303</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>472</v>
       </c>
     </row>
@@ -23712,7 +23901,7 @@
       <c r="H71" t="s">
         <v>572</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>507</v>
       </c>
     </row>
@@ -23720,7 +23909,7 @@
       <c r="H72" t="s">
         <v>349</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>212</v>
       </c>
     </row>
@@ -23728,7 +23917,7 @@
       <c r="H73" t="s">
         <v>444</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>423</v>
       </c>
     </row>
@@ -23736,7 +23925,7 @@
       <c r="H74" t="s">
         <v>339</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>477</v>
       </c>
     </row>
@@ -23744,7 +23933,7 @@
       <c r="H75" t="s">
         <v>445</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -23752,7 +23941,7 @@
       <c r="H76" t="s">
         <v>296</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>138</v>
       </c>
     </row>
@@ -23760,7 +23949,7 @@
       <c r="H77" t="s">
         <v>552</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -23768,7 +23957,7 @@
       <c r="H78" t="s">
         <v>378</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -23776,7 +23965,7 @@
       <c r="H79" t="s">
         <v>314</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>691</v>
       </c>
     </row>
@@ -23784,7 +23973,7 @@
       <c r="H80" t="s">
         <v>320</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>195</v>
       </c>
     </row>
@@ -23792,7 +23981,7 @@
       <c r="H81" t="s">
         <v>325</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>196</v>
       </c>
     </row>
@@ -23800,7 +23989,7 @@
       <c r="H82" t="s">
         <v>463</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>488</v>
       </c>
     </row>
@@ -23808,7 +23997,7 @@
       <c r="H83" t="s">
         <v>366</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>501</v>
       </c>
     </row>
@@ -23816,7 +24005,7 @@
       <c r="H84" t="s">
         <v>304</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -23824,7 +24013,7 @@
       <c r="H85" t="s">
         <v>315</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>142</v>
       </c>
     </row>
@@ -23832,7 +24021,7 @@
       <c r="H86" t="s">
         <v>321</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>143</v>
       </c>
     </row>
@@ -23840,7 +24029,7 @@
       <c r="H87" t="s">
         <v>310</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>529</v>
       </c>
     </row>
@@ -23848,7 +24037,7 @@
       <c r="H88" t="s">
         <v>573</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>144</v>
       </c>
     </row>
@@ -23856,7 +24045,7 @@
       <c r="H89" t="s">
         <v>305</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>145</v>
       </c>
     </row>
@@ -23864,7 +24053,7 @@
       <c r="H90" t="s">
         <v>322</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>197</v>
       </c>
     </row>
@@ -23872,7 +24061,7 @@
       <c r="H91" t="s">
         <v>306</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>517</v>
       </c>
     </row>
@@ -23880,7 +24069,7 @@
       <c r="H92" t="s">
         <v>307</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>609</v>
       </c>
     </row>
@@ -23888,7 +24077,7 @@
       <c r="H93" t="s">
         <v>340</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>198</v>
       </c>
     </row>
@@ -23896,7 +24085,7 @@
       <c r="H94" t="s">
         <v>346</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>487</v>
       </c>
     </row>
@@ -23904,7 +24093,7 @@
       <c r="H95" t="s">
         <v>329</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -23912,7 +24101,7 @@
       <c r="H96" t="s">
         <v>374</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -23920,7 +24109,7 @@
       <c r="H97" t="s">
         <v>311</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>594</v>
       </c>
     </row>
@@ -23928,272 +24117,272 @@
       <c r="H98" t="s">
         <v>312</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>650</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19125" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19727" uniqueCount="696">
   <si>
     <t>description</t>
   </si>
@@ -2166,7 +2166,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="545" x14ac:knownFonts="1">
+  <fonts count="562" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5609,8 +5609,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="913">
+  <fills count="937">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10370,6 +10477,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -20169,7 +20412,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="573">
+  <cellXfs count="590">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21861,55 +22104,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="885" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="891" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="891" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="530" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="531" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="900" fontId="532" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="533" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="903" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="903" fontId="534" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="537" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="900" fontId="541" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="912" fontId="542" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="900" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="544" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="915" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="918" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="930" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/excel-showcase.xlsx
@@ -29,16 +29,16 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19727" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20336" uniqueCount="703">
   <si>
     <t>description</t>
   </si>
@@ -2159,6 +2159,27 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2187,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="562" x14ac:knownFonts="1">
+  <fonts count="579" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5716,8 +5737,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="937">
+  <fills count="961">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10477,6 +10605,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -20412,7 +20676,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="590">
+  <cellXfs count="607">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22155,55 +22419,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="915" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="915" fontId="545" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="918" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="918" fontId="547" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="548" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="924" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="550" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="927" fontId="551" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="930" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="930" fontId="553" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="554" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="555" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="556" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="557" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="924" fontId="558" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="559" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="924" fontId="560" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="561" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="939" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="942" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="945" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="951" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="954" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="957" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="945" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="957" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22720,7 +23035,7 @@
         <v>513</v>
       </c>
       <c r="Q2" t="s">
-        <v>447</v>
+        <v>697</v>
       </c>
       <c r="R2" t="s">
         <v>465</v>
@@ -22814,6 +23129,9 @@
       <c r="P3" t="s">
         <v>514</v>
       </c>
+      <c r="Q3" t="s">
+        <v>698</v>
+      </c>
       <c r="R3" t="s">
         <v>466</v>
       </c>
@@ -22900,6 +23218,9 @@
       <c r="P4" t="s">
         <v>515</v>
       </c>
+      <c r="Q4" t="s">
+        <v>447</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -22980,6 +23301,9 @@
       <c r="O5" t="s">
         <v>568</v>
       </c>
+      <c r="Q5" t="s">
+        <v>699</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -23111,7 +23435,7 @@
         <v>382</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>696</v>
       </c>
       <c r="N7" t="s">
         <v>350</v>
@@ -23173,7 +23497,7 @@
         <v>574</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -23232,7 +23556,7 @@
         <v>363</v>
       </c>
       <c r="L9" t="s">
-        <v>538</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -23282,7 +23606,7 @@
         <v>611</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -23326,7 +23650,7 @@
         <v>612</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
         <v>506</v>
@@ -23364,7 +23688,7 @@
         <v>486</v>
       </c>
       <c r="L12" t="s">
-        <v>539</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>575</v>
@@ -23402,7 +23726,7 @@
         <v>356</v>
       </c>
       <c r="L13" t="s">
-        <v>424</v>
+        <v>539</v>
       </c>
       <c r="N13" t="s">
         <v>475</v>
@@ -23414,7 +23738,7 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>247</v>
+        <v>700</v>
       </c>
       <c r="AA13" t="s">
         <v>360</v>
@@ -23440,7 +23764,7 @@
         <v>357</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>424</v>
       </c>
       <c r="N14" t="s">
         <v>505</v>
@@ -23449,7 +23773,7 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>615</v>
+        <v>247</v>
       </c>
       <c r="AA14" t="s">
         <v>102</v>
@@ -23475,7 +23799,7 @@
         <v>358</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -23484,7 +23808,7 @@
         <v>533</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
+        <v>615</v>
       </c>
       <c r="AA15" t="s">
         <v>639</v>
@@ -23510,7 +23834,7 @@
         <v>359</v>
       </c>
       <c r="L16" t="s">
-        <v>540</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>588</v>
@@ -23519,7 +23843,7 @@
         <v>534</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA16" t="s">
         <v>621</v>
@@ -23542,13 +23866,13 @@
         <v>352</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>540</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA17" t="s">
         <v>103</v>
@@ -23571,13 +23895,13 @@
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA18" t="s">
         <v>75</v>
@@ -23597,7 +23921,10 @@
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>490</v>
+        <v>82</v>
+      </c>
+      <c r="S19" t="s">
+        <v>701</v>
       </c>
       <c r="AA19" t="s">
         <v>535</v>
@@ -23617,7 +23944,10 @@
         <v>330</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>490</v>
+      </c>
+      <c r="S20" t="s">
+        <v>250</v>
       </c>
       <c r="AA20" t="s">
         <v>104</v>
@@ -23637,7 +23967,10 @@
         <v>331</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="S21" t="s">
+        <v>702</v>
       </c>
       <c r="AA21" t="s">
         <v>105</v>
@@ -23657,7 +23990,7 @@
         <v>332</v>
       </c>
       <c r="L22" t="s">
-        <v>603</v>
+        <v>84</v>
       </c>
       <c r="AA22" t="s">
         <v>106</v>
@@ -23677,7 +24010,7 @@
         <v>333</v>
       </c>
       <c r="L23" t="s">
-        <v>504</v>
+        <v>603</v>
       </c>
       <c r="AA23" t="s">
         <v>107</v>
@@ -23697,7 +24030,7 @@
         <v>324</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>504</v>
       </c>
       <c r="AA24" t="s">
         <v>518</v>
@@ -23717,7 +24050,7 @@
         <v>313</v>
       </c>
       <c r="L25" t="s">
-        <v>426</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>108</v>
@@ -23737,7 +24070,7 @@
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>654</v>
+        <v>426</v>
       </c>
       <c r="AA26" t="s">
         <v>589</v>
@@ -23757,7 +24090,7 @@
         <v>316</v>
       </c>
       <c r="L27" t="s">
-        <v>567</v>
+        <v>654</v>
       </c>
       <c r="AA27" t="s">
         <v>109</v>
@@ -23777,7 +24110,7 @@
         <v>300</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>567</v>
       </c>
       <c r="AA28" t="s">
         <v>110</v>
@@ -23794,7 +24127,7 @@
         <v>317</v>
       </c>
       <c r="L29" t="s">
-        <v>474</v>
+        <v>85</v>
       </c>
       <c r="AA29" t="s">
         <v>111</v>
@@ -23811,7 +24144,7 @@
         <v>318</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="AA30" t="s">
         <v>112</v>
@@ -23828,7 +24161,7 @@
         <v>214</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>361</v>
@@ -23843,6 +24176,9 @@
       </c>
       <c r="H32" t="s">
         <v>309</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>113</v>
